--- a/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/start_logo3/logo3.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/start_logo3/logo3.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\HRA_product\TangCartMSX\RTL\tangnano20k_vdp_cartridge_step7\src\th9958\start_logo3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\HRA_product\TangCartMSX\RTL\tangnano20k_vdp_cartridge_rev2_step1\src\th9958\start_logo3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LOGO3" sheetId="1" r:id="rId1"/>
+    <sheet name="ROTATE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>Frame</t>
     <phoneticPr fontId="1"/>
@@ -103,6 +104,14 @@
   </si>
   <si>
     <t>SY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cosθ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>422x80</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -231,7 +240,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -284,7 +292,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$64</c:f>
+              <c:f>LOGO3!$F$4:$F$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -485,11 +493,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="312560152"/>
-        <c:axId val="312556624"/>
+        <c:axId val="346575656"/>
+        <c:axId val="346578792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="312560152"/>
+        <c:axId val="346575656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -531,7 +539,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312556624"/>
+        <c:crossAx val="346578792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -539,7 +547,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312556624"/>
+        <c:axId val="346578792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,7 +598,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312560152"/>
+        <c:crossAx val="346575656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -654,7 +662,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -695,7 +702,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$3</c:f>
+              <c:f>LOGO3!$I$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -718,7 +725,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$64</c:f>
+              <c:f>LOGO3!$I$4:$I$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="61"/>
@@ -919,11 +926,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="312557016"/>
-        <c:axId val="312558192"/>
+        <c:axId val="346576440"/>
+        <c:axId val="346573696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="312557016"/>
+        <c:axId val="346576440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +972,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312558192"/>
+        <c:crossAx val="346573696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -973,7 +980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312558192"/>
+        <c:axId val="346573696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,7 +1031,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312557016"/>
+        <c:crossAx val="346576440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2515,7 +2522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
@@ -4670,7 +4677,7 @@
         <v>32</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:C67" si="15">B36/10*(PI()/2)</f>
+        <f t="shared" ref="C36:C64" si="15">B36/10*(PI()/2)</f>
         <v>5.026548245743669</v>
       </c>
       <c r="D36">
@@ -6556,4 +6563,2572 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:K64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>B4/60*2*PI()</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>SIN(C4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>COS(C4)</f>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>211-211*E4+40*D4</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>40-211*D4-40*E4</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>INT(E4*256)</f>
+        <v>256</v>
+      </c>
+      <c r="I4">
+        <f>INT(D4*256)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>INT(F4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>INT(G4)+192</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C64" si="0">B5/60*2*PI()</f>
+        <v>0.10471975511965977</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D64" si="1">SIN(C5)</f>
+        <v>0.10452846326765346</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E64" si="2">COS(C5)</f>
+        <v>0.99452189536827329</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F64" si="3">211-211*E5+40*D5</f>
+        <v>5.3370186080004798</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G64" si="4">40-211*D5-40*E5</f>
+        <v>-21.836381564205812</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H64" si="5">INT(E5*256)</f>
+        <v>254</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I64" si="6">INT(D5*256)</f>
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J64" si="7">INT(F5)</f>
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K64" si="8">INT(G5)+192</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.20943951023931953</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.20791169081775931</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>0.97814760073380569</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>12.927323877877358</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>-42.995270791899443</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="8"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.31415926535897931</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.3090169943749474</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0.95105651629515353</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>22.687754836720508</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>-63.244846464920037</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>243</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.41887902047863906</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.40673664307580015</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>0.91354545764260087</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>34.511374160443218</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>-82.363249994697867</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>233</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="8"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.52359877559829882</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>48.268639801483431</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>-100.14101615137753</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>221</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.58778525229247314</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0.80901699437494745</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>63.808824278585028</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>-116.38336800870974</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>207</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.73303828583761843</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.66913060635885824</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>0.74314482547739424</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>80.961666078624148</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>-130.91235096081485</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>171</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.83775804095727813</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.74314482547739413</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0.66913060635885824</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>99.539235077376674</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>-143.5687824300845</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>171</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="6"/>
+        <v>190</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.94247779607693793</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.80901699437494745</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0.58778525229247314</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>119.33799154128607</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>-154.21399590481283</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>207</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="7"/>
+        <v>119</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>140.14101615137753</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>-162.73136019851654</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>221</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.1519173063162573</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.91354545764260087</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>0.40673664307580037</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>161.72038661671016</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
+        <v>-169.02755728562079</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="6"/>
+        <v>233</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="7"/>
+        <v>161</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.95105651629515353</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>0.30901699437494745</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>183.83967483869225</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
+        <v>-173.03360471327528</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>243</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="7"/>
+        <v>183</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.3613568165555772</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.97814760073380569</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>0.20791169081775923</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>206.25653726680503</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
+        <v>-174.70561138754337</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="7"/>
+        <v>206</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1.4660765716752369</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.99452189536827329</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>0.10452846326765346</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>228.72537006525604</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
+        <v>-174.02525845341179</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="6"/>
+        <v>254</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>228</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>251</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
+        <v>-171</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="6"/>
+        <v>256</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="7"/>
+        <v>251</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1.6755160819145563</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.9945218953682734</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>-0.10452846326765333</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>272.83638156420579</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>-165.66298139199955</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>-27</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>254</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="7"/>
+        <v>272</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1.780235837034216</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.97814760073380569</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>-0.20791169081775912</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>293.99527079189943</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
+        <v>-158.07267612212266</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>-54</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>293</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1.8849555921538759</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.95105651629515364</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>-0.30901699437494734</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>314.24484646492004</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
+        <v>-148.31224516327953</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>243</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>314</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1.9896753472735356</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.91354545764260098</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>-0.40673664307580004</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>333.36324999469787</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
+        <v>-136.48862583955682</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>-105</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="6"/>
+        <v>233</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>333</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>2.0943951023931953</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>-0.49999999999999978</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>351.14101615137747</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>-122.73136019851657</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>-128</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="6"/>
+        <v>221</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="7"/>
+        <v>351</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>2.1991148575128552</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.80901699437494745</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>-0.58778525229247303</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>367.38336800870968</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>-107.19117572141498</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>-151</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="6"/>
+        <v>207</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="7"/>
+        <v>367</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>2.3038346126325147</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0.74314482547739447</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>-0.6691306063588579</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>381.91235096081476</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>-90.038333921375937</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>-172</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="6"/>
+        <v>190</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="7"/>
+        <v>381</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>2.408554367752175</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0.66913060635885802</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>-0.74314482547739436</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>394.56878243008458</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>-71.460764922623255</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>-191</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="6"/>
+        <v>171</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="7"/>
+        <v>394</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>2.5132741228718345</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0.58778525229247325</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>-0.80901699437494734</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>405.2139959048128</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>-51.66200845871397</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>-208</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="7"/>
+        <v>405</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="8"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>2.6179938779914944</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>-0.86602540378443871</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>413.73136019851654</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>-30.858983848622437</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>-222</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="6"/>
+        <v>128</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="7"/>
+        <v>413</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="8"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>2.7227136331111543</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0.40673664307580004</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>-0.91354545764260098</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>420.02755728562079</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
+        <v>-9.2796133832897709</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>-234</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="7"/>
+        <v>420</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="8"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>2.8274333882308138</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>0.30901699437494751</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>-0.95105651629515353</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>424.03360471327528</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
+        <v>12.839674838692211</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="5"/>
+        <v>-244</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="7"/>
+        <v>424</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="8"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>2.9321531433504737</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>0.20791169081775931</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>-0.97814760073380569</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>425.7056113875434</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>35.256537266805012</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="5"/>
+        <v>-251</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="7"/>
+        <v>425</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="8"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>3.0368728984701332</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0.10452846326765373</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>-0.99452189536827329</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>425.02525845341182</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>57.725370065255994</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="5"/>
+        <v>-255</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="7"/>
+        <v>425</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="8"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>422</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>79.999999999999972</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>-256</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="7"/>
+        <v>422</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="8"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B35">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>3.246312408709453</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>-0.1045284632676535</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>-0.99452189536827329</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="3"/>
+        <v>416.66298139199949</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>101.83638156420582</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>-255</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="6"/>
+        <v>-27</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="7"/>
+        <v>416</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="8"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>3.3510321638291125</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>-0.20791169081775907</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>-0.97814760073380569</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>409.07267612212263</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>122.9952707918994</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="5"/>
+        <v>-251</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="6"/>
+        <v>-54</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="7"/>
+        <v>409</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="8"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B37">
+        <v>33</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>3.4557519189487729</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>-0.30901699437494773</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>-0.95105651629515353</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>399.3122451632795</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>143.2448464649201</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>-244</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="7"/>
+        <v>399</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="8"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B38">
+        <v>34</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>3.5604716740684319</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>-0.40673664307579982</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>-0.91354545764260109</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>387.48862583955679</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>162.36324999469781</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>-234</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="6"/>
+        <v>-105</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="7"/>
+        <v>387</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="8"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B39">
+        <v>35</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>3.6651914291880923</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>-0.50000000000000011</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="3"/>
+        <v>373.73136019851654</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>180.14101615137758</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>-222</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="6"/>
+        <v>-128</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="7"/>
+        <v>373</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="8"/>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B40">
+        <v>36</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>3.7699111843077517</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>-0.58778525229247303</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>-0.80901699437494756</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="3"/>
+        <v>358.19117572141505</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>196.38336800870968</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>-208</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="6"/>
+        <v>-151</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="7"/>
+        <v>358</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="8"/>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B41">
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>3.8746309394274117</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>-0.66913060635885824</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>-0.74314482547739424</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>341.03833392137585</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>210.91235096081485</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>-191</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="6"/>
+        <v>-172</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="7"/>
+        <v>341</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="8"/>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B42">
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>3.9793506945470711</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>-0.74314482547739402</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>-0.66913060635885846</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="3"/>
+        <v>322.46076492262335</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>223.56878243008447</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>-172</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="6"/>
+        <v>-191</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="7"/>
+        <v>322</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="8"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B43">
+        <v>39</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>4.0840704496667311</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>-0.80901699437494734</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>-0.58778525229247325</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="3"/>
+        <v>302.66200845871396</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>234.21399590481283</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>-151</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="6"/>
+        <v>-208</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="7"/>
+        <v>302</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="8"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>4.1887902047863905</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>-0.86602540378443837</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>-0.50000000000000044</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="3"/>
+        <v>281.85898384862259</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>242.73136019851651</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>-128</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="6"/>
+        <v>-222</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="7"/>
+        <v>281</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="8"/>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B45">
+        <v>41</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>4.2935099599060509</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>-0.91354545764260098</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>-0.4067366430758001</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="3"/>
+        <v>260.27961338328976</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>249.02755728562082</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>-105</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="6"/>
+        <v>-234</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="7"/>
+        <v>260</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="8"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B46">
+        <v>42</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>4.3982297150257104</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>-0.95105651629515353</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>-0.30901699437494756</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="3"/>
+        <v>238.16032516130781</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>253.03360471327528</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="5"/>
+        <v>-80</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="6"/>
+        <v>-244</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="7"/>
+        <v>238</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="8"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B47">
+        <v>43</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>4.5029494701453698</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>-0.97814760073380558</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>-0.20791169081775979</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="3"/>
+        <v>215.74346273319509</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>254.70561138754337</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="5"/>
+        <v>-54</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="6"/>
+        <v>-251</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="7"/>
+        <v>215</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="8"/>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B48">
+        <v>44</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>4.6076692252650293</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>-0.99452189536827329</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>-0.10452846326765423</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="3"/>
+        <v>193.2746299347441</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="4"/>
+        <v>254.02525845341182</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="5"/>
+        <v>-27</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="6"/>
+        <v>-255</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="7"/>
+        <v>193</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="8"/>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B49">
+        <v>45</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>-1.83772268236293E-16</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="3"/>
+        <v>171.00000000000003</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="4"/>
+        <v>251</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="6"/>
+        <v>-256</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="7"/>
+        <v>171</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="8"/>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B50">
+        <v>46</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>4.81710873550435</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>-0.99452189536827329</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>0.10452846326765387</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="3"/>
+        <v>149.16361843579409</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>245.66298139199949</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="6"/>
+        <v>-255</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="7"/>
+        <v>149</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="8"/>
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B51">
+        <v>47</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>4.9218284906240095</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>-0.97814760073380558</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>0.20791169081775943</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="3"/>
+        <v>128.00472920810054</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="4"/>
+        <v>238.0726761221226</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="6"/>
+        <v>-251</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="7"/>
+        <v>128</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="8"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B52">
+        <v>48</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>5.026548245743669</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>-0.95105651629515364</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>0.30901699437494723</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="3"/>
+        <v>107.75515353507998</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>228.31224516327953</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="6"/>
+        <v>-244</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="8"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B53">
+        <v>49</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>5.1312680008633285</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>-0.91354545764260109</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>0.40673664307579976</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="3"/>
+        <v>88.636750005302204</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>216.48862583955682</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="5"/>
+        <v>104</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="6"/>
+        <v>-234</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="8"/>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B54">
+        <v>50</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>5.2359877559829888</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="3"/>
+        <v>70.858983848622429</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>202.73136019851654</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="6"/>
+        <v>-222</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="8"/>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B55">
+        <v>51</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>5.3407075111026483</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>-0.80901699437494756</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>0.58778525229247292</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="3"/>
+        <v>54.616631991290305</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="4"/>
+        <v>187.19117572141502</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="6"/>
+        <v>-208</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="8"/>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B56">
+        <v>52</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>5.4454272662223087</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>-0.74314482547739402</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>0.66913060635885846</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="3"/>
+        <v>40.087649039185095</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>170.03833392137579</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="5"/>
+        <v>171</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="6"/>
+        <v>-191</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="8"/>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B57">
+        <v>53</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>5.5501470213419672</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>-0.66913060635885879</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>0.74314482547739369</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="3"/>
+        <v>27.431217569915574</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="4"/>
+        <v>151.46076492262347</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="5"/>
+        <v>190</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="6"/>
+        <v>-172</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="8"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B58">
+        <v>54</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>5.6548667764616276</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>-0.58778525229247336</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>0.80901699437494734</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="3"/>
+        <v>16.786004095187167</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>131.66200845871398</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="5"/>
+        <v>207</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="6"/>
+        <v>-151</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="8"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B59">
+        <v>55</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>5.7595865315812871</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>-0.50000000000000044</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>0.86602540378443837</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="3"/>
+        <v>8.2686398014834985</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="4"/>
+        <v>110.85898384862259</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="5"/>
+        <v>221</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="6"/>
+        <v>-128</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="8"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B60">
+        <v>56</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>5.8643062867009474</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>-0.40673664307580015</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>0.91354545764260098</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="3"/>
+        <v>1.9724427143791772</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="4"/>
+        <v>89.279613383289785</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="5"/>
+        <v>233</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="6"/>
+        <v>-105</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="8"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B61">
+        <v>57</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>5.9690260418206069</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>-0.30901699437494762</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>0.95105651629515353</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="3"/>
+        <v>-2.0336047132752952</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>67.16032516130781</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="5"/>
+        <v>243</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="6"/>
+        <v>-80</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="8"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B62">
+        <v>58</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>6.0737457969402664</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>-0.20791169081775987</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>0.97814760073380558</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="3"/>
+        <v>-3.7056113875433816</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="4"/>
+        <v>44.743462733195109</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="6"/>
+        <v>-54</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="8"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B63">
+        <v>59</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>6.1784655520599259</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>-0.1045284632676543</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>0.99452189536827329</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="3"/>
+        <v>-3.0252584534118308</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="4"/>
+        <v>22.274629934744127</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="5"/>
+        <v>254</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="6"/>
+        <v>-27</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="7"/>
+        <v>-4</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="8"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B64">
+        <v>60</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>-2.45029690981724E-16</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="3"/>
+        <v>-9.8011876392689601E-15</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="5"/>
+        <v>256</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="8"/>
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/start_logo3/logo3.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/start_logo3/logo3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13635"/>
   </bookViews>
   <sheets>
     <sheet name="LOGO3" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Frame</t>
     <phoneticPr fontId="1"/>
@@ -112,6 +112,14 @@
   </si>
   <si>
     <t>422x80</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SY*2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SY</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -240,6 +248,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -493,11 +502,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="346575656"/>
-        <c:axId val="346578792"/>
+        <c:axId val="341007912"/>
+        <c:axId val="341009088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="346575656"/>
+        <c:axId val="341007912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,7 +548,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346578792"/>
+        <c:crossAx val="341009088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -547,7 +556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346578792"/>
+        <c:axId val="341009088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,7 +607,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346575656"/>
+        <c:crossAx val="341007912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -662,6 +671,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -926,11 +936,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="346576440"/>
-        <c:axId val="346573696"/>
+        <c:axId val="341010656"/>
+        <c:axId val="341004776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="346576440"/>
+        <c:axId val="341010656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +982,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346573696"/>
+        <c:crossAx val="341004776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -980,7 +990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="346573696"/>
+        <c:axId val="341004776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,7 +1041,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346576440"/>
+        <c:crossAx val="341010656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2522,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q64"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2629,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f>SIN(J4)</f>
+        <f>-SIN(J4)</f>
         <v>0</v>
       </c>
       <c r="L4">
@@ -2649,11 +2659,11 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <f>INT((112*256-N4*106-O4*40)/256)</f>
+        <f>INT((I4+112*256-N4*106-O4*80)/256)</f>
         <v>-630</v>
       </c>
       <c r="Q4">
-        <f>INT(((256*40)-O4*106+N4*40)/256)</f>
+        <f>INT(((256*80)-O4*106+N4*80)/512)</f>
         <v>320</v>
       </c>
     </row>
@@ -2694,8 +2704,8 @@
         <v>8.1908894356439763E-2</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K64" si="8">SIN(J5)</f>
-        <v>8.1817336365595031E-2</v>
+        <f t="shared" ref="K5:K64" si="8">-SIN(J5)</f>
+        <v>-8.1817336365595031E-2</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L64" si="9">COS(J5)</f>
@@ -2711,15 +2721,15 @@
       </c>
       <c r="O5">
         <f t="shared" ref="O5:O64" si="12">INT(K5*256/M5)</f>
-        <v>133</v>
+        <v>-134</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P64" si="13">INT((112*256-N5*106-O5*40)/256)</f>
-        <v>-581</v>
+        <f t="shared" ref="P5:P64" si="13">INT((I5+112*256-N5*106-O5*80)/256)</f>
+        <v>-518</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q64" si="14">INT(((256*40)-O5*106+N5*40)/256)</f>
-        <v>238</v>
+        <f t="shared" ref="Q5:Q64" si="14">INT(((256*80)-O5*106+N5*80)/512)</f>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.15">
@@ -2760,7 +2770,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="8"/>
-        <v>0.16109586454821878</v>
+        <v>-0.16109586454821878</v>
       </c>
       <c r="L6">
         <f t="shared" si="9"/>
@@ -2776,15 +2786,15 @@
       </c>
       <c r="O6">
         <f t="shared" si="12"/>
-        <v>240</v>
+        <v>-241</v>
       </c>
       <c r="P6">
         <f t="shared" si="13"/>
-        <v>-536</v>
+        <v>-423</v>
       </c>
       <c r="Q6">
         <f t="shared" si="14"/>
-        <v>170</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.15">
@@ -2825,7 +2835,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="8"/>
-        <v>0.23547654271926644</v>
+        <v>-0.23547654271926644</v>
       </c>
       <c r="L7">
         <f t="shared" si="9"/>
@@ -2841,15 +2851,15 @@
       </c>
       <c r="O7">
         <f t="shared" si="12"/>
-        <v>324</v>
+        <v>-325</v>
       </c>
       <c r="P7">
         <f t="shared" si="13"/>
-        <v>-494</v>
+        <v>-341</v>
       </c>
       <c r="Q7">
         <f t="shared" si="14"/>
-        <v>115</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.15">
@@ -2890,7 +2900,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="8"/>
-        <v>0.30292811316041984</v>
+        <v>-0.30292811316041984</v>
       </c>
       <c r="L8">
         <f t="shared" si="9"/>
@@ -2906,15 +2916,15 @@
       </c>
       <c r="O8">
         <f t="shared" si="12"/>
-        <v>387</v>
+        <v>-388</v>
       </c>
       <c r="P8">
         <f t="shared" si="13"/>
-        <v>-454</v>
+        <v>-271</v>
       </c>
       <c r="Q8">
         <f t="shared" si="14"/>
-        <v>70</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
@@ -2955,7 +2965,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="8"/>
-        <v>0.36183940836708373</v>
+        <v>-0.36183940836708373</v>
       </c>
       <c r="L9">
         <f t="shared" si="9"/>
@@ -2971,15 +2981,15 @@
       </c>
       <c r="O9">
         <f t="shared" si="12"/>
-        <v>432</v>
+        <v>-433</v>
       </c>
       <c r="P9">
         <f t="shared" si="13"/>
-        <v>-417</v>
+        <v>-213</v>
       </c>
       <c r="Q9">
         <f t="shared" si="14"/>
-        <v>35</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.15">
@@ -3020,7 +3030,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="8"/>
-        <v>0.4110452043571432</v>
+        <v>-0.4110452043571432</v>
       </c>
       <c r="L10">
         <f t="shared" si="9"/>
@@ -3036,15 +3046,15 @@
       </c>
       <c r="O10">
         <f t="shared" si="12"/>
-        <v>460</v>
+        <v>-461</v>
       </c>
       <c r="P10">
         <f t="shared" si="13"/>
-        <v>-383</v>
+        <v>-167</v>
       </c>
       <c r="Q10">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.15">
@@ -3085,7 +3095,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="8"/>
-        <v>0.44978975616883748</v>
+        <v>-0.44978975616883748</v>
       </c>
       <c r="L11">
         <f t="shared" si="9"/>
@@ -3101,15 +3111,15 @@
       </c>
       <c r="O11">
         <f t="shared" si="12"/>
-        <v>474</v>
+        <v>-475</v>
       </c>
       <c r="P11">
         <f t="shared" si="13"/>
-        <v>-352</v>
+        <v>-129</v>
       </c>
       <c r="Q11">
         <f t="shared" si="14"/>
-        <v>-10</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.15">
@@ -3150,7 +3160,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="8"/>
-        <v>0.47764484062449608</v>
+        <v>-0.47764484062449608</v>
       </c>
       <c r="L12">
         <f t="shared" si="9"/>
@@ -3166,15 +3176,15 @@
       </c>
       <c r="O12">
         <f t="shared" si="12"/>
-        <v>475</v>
+        <v>-476</v>
       </c>
       <c r="P12">
         <f t="shared" si="13"/>
-        <v>-325</v>
+        <v>-101</v>
       </c>
       <c r="Q12">
         <f t="shared" si="14"/>
-        <v>-21</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.15">
@@ -3215,7 +3225,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="8"/>
-        <v>0.49440692978035133</v>
+        <v>-0.49440692978035133</v>
       </c>
       <c r="L13">
         <f t="shared" si="9"/>
@@ -3231,15 +3241,15 @@
       </c>
       <c r="O13">
         <f t="shared" si="12"/>
-        <v>466</v>
+        <v>-467</v>
       </c>
       <c r="P13">
         <f t="shared" si="13"/>
-        <v>-300</v>
+        <v>-81</v>
       </c>
       <c r="Q13">
         <f t="shared" si="14"/>
-        <v>-25</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.15">
@@ -3280,7 +3290,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="8"/>
-        <v>0.49999999999999994</v>
+        <v>-0.49999999999999994</v>
       </c>
       <c r="L14">
         <f t="shared" si="9"/>
@@ -3296,15 +3306,15 @@
       </c>
       <c r="O14">
         <f t="shared" si="12"/>
-        <v>448</v>
+        <v>-448</v>
       </c>
       <c r="P14">
         <f t="shared" si="13"/>
-        <v>-279</v>
+        <v>-69</v>
       </c>
       <c r="Q14">
         <f t="shared" si="14"/>
-        <v>-25</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.15">
@@ -3345,7 +3355,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="8"/>
-        <v>0.49440692978035122</v>
+        <v>-0.49440692978035122</v>
       </c>
       <c r="L15">
         <f t="shared" si="9"/>
@@ -3361,15 +3371,15 @@
       </c>
       <c r="O15">
         <f t="shared" si="12"/>
-        <v>421</v>
+        <v>-422</v>
       </c>
       <c r="P15">
         <f t="shared" si="13"/>
-        <v>-261</v>
+        <v>-63</v>
       </c>
       <c r="Q15">
         <f t="shared" si="14"/>
-        <v>-19</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.15">
@@ -3410,7 +3420,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="8"/>
-        <v>0.47764484062449608</v>
+        <v>-0.47764484062449608</v>
       </c>
       <c r="L16">
         <f t="shared" si="9"/>
@@ -3426,15 +3436,15 @@
       </c>
       <c r="O16">
         <f t="shared" si="12"/>
-        <v>389</v>
+        <v>-390</v>
       </c>
       <c r="P16">
         <f t="shared" si="13"/>
-        <v>-245</v>
+        <v>-62</v>
       </c>
       <c r="Q16">
         <f t="shared" si="14"/>
-        <v>-10</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.15">
@@ -3475,7 +3485,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="8"/>
-        <v>0.4497897561688376</v>
+        <v>-0.4497897561688376</v>
       </c>
       <c r="L17">
         <f t="shared" si="9"/>
@@ -3491,15 +3501,15 @@
       </c>
       <c r="O17">
         <f t="shared" si="12"/>
-        <v>350</v>
+        <v>-351</v>
       </c>
       <c r="P17">
         <f t="shared" si="13"/>
-        <v>-231</v>
+        <v>-66</v>
       </c>
       <c r="Q17">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.15">
@@ -3540,7 +3550,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="8"/>
-        <v>0.4110452043571432</v>
+        <v>-0.4110452043571432</v>
       </c>
       <c r="L18">
         <f t="shared" si="9"/>
@@ -3556,15 +3566,15 @@
       </c>
       <c r="O18">
         <f t="shared" si="12"/>
-        <v>306</v>
+        <v>-307</v>
       </c>
       <c r="P18">
         <f t="shared" si="13"/>
-        <v>-218</v>
+        <v>-74</v>
       </c>
       <c r="Q18">
         <f t="shared" si="14"/>
-        <v>19</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.15">
@@ -3605,7 +3615,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="8"/>
-        <v>0.36183940836708373</v>
+        <v>-0.36183940836708373</v>
       </c>
       <c r="L19">
         <f t="shared" si="9"/>
@@ -3621,15 +3631,15 @@
       </c>
       <c r="O19">
         <f t="shared" si="12"/>
-        <v>259</v>
+        <v>-260</v>
       </c>
       <c r="P19">
         <f t="shared" si="13"/>
-        <v>-206</v>
+        <v>-83</v>
       </c>
       <c r="Q19">
         <f t="shared" si="14"/>
-        <v>37</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.15">
@@ -3670,7 +3680,7 @@
       </c>
       <c r="K20">
         <f t="shared" si="8"/>
-        <v>0.30292811316041995</v>
+        <v>-0.30292811316041995</v>
       </c>
       <c r="L20">
         <f t="shared" si="9"/>
@@ -3686,15 +3696,15 @@
       </c>
       <c r="O20">
         <f t="shared" si="12"/>
-        <v>208</v>
+        <v>-209</v>
       </c>
       <c r="P20">
         <f t="shared" si="13"/>
-        <v>-193</v>
+        <v>-94</v>
       </c>
       <c r="Q20">
         <f t="shared" si="14"/>
-        <v>56</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.15">
@@ -3735,7 +3745,7 @@
       </c>
       <c r="K21">
         <f t="shared" si="8"/>
-        <v>0.23547654271926646</v>
+        <v>-0.23547654271926646</v>
       </c>
       <c r="L21">
         <f t="shared" si="9"/>
@@ -3751,15 +3761,15 @@
       </c>
       <c r="O21">
         <f t="shared" si="12"/>
-        <v>156</v>
+        <v>-157</v>
       </c>
       <c r="P21">
         <f t="shared" si="13"/>
-        <v>-180</v>
+        <v>-106</v>
       </c>
       <c r="Q21">
         <f t="shared" si="14"/>
-        <v>76</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.15">
@@ -3800,7 +3810,7 @@
       </c>
       <c r="K22">
         <f t="shared" si="8"/>
-        <v>0.16109586454821884</v>
+        <v>-0.16109586454821884</v>
       </c>
       <c r="L22">
         <f t="shared" si="9"/>
@@ -3816,15 +3826,15 @@
       </c>
       <c r="O22">
         <f t="shared" si="12"/>
-        <v>103</v>
+        <v>-104</v>
       </c>
       <c r="P22">
         <f t="shared" si="13"/>
-        <v>-166</v>
+        <v>-117</v>
       </c>
       <c r="Q22">
         <f t="shared" si="14"/>
-        <v>95</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.15">
@@ -3865,7 +3875,7 @@
       </c>
       <c r="K23">
         <f t="shared" si="8"/>
-        <v>8.18173363655951E-2</v>
+        <v>-8.18173363655951E-2</v>
       </c>
       <c r="L23">
         <f t="shared" si="9"/>
@@ -3881,15 +3891,15 @@
       </c>
       <c r="O23">
         <f t="shared" si="12"/>
-        <v>50</v>
+        <v>-51</v>
       </c>
       <c r="P23">
         <f t="shared" si="13"/>
-        <v>-151</v>
+        <v>-127</v>
       </c>
       <c r="Q23">
         <f t="shared" si="14"/>
-        <v>115</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.15">
@@ -3930,7 +3940,7 @@
       </c>
       <c r="K24">
         <f t="shared" si="8"/>
-        <v>6.4148623091630105E-17</v>
+        <v>-6.4148623091630105E-17</v>
       </c>
       <c r="L24">
         <f t="shared" si="9"/>
@@ -3946,11 +3956,11 @@
       </c>
       <c r="O24">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P24">
         <f t="shared" si="13"/>
-        <v>-136</v>
+        <v>-135</v>
       </c>
       <c r="Q24">
         <f t="shared" si="14"/>
@@ -3995,7 +4005,7 @@
       </c>
       <c r="K25">
         <f t="shared" si="8"/>
-        <v>-8.1817336365594961E-2</v>
+        <v>8.1817336365594961E-2</v>
       </c>
       <c r="L25">
         <f t="shared" si="9"/>
@@ -4011,15 +4021,15 @@
       </c>
       <c r="O25">
         <f t="shared" si="12"/>
-        <v>-48</v>
+        <v>47</v>
       </c>
       <c r="P25">
         <f t="shared" si="13"/>
-        <v>-119</v>
+        <v>-141</v>
       </c>
       <c r="Q25">
         <f t="shared" si="14"/>
-        <v>149</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.15">
@@ -4060,7 +4070,7 @@
       </c>
       <c r="K26">
         <f t="shared" si="8"/>
-        <v>-0.16109586454821895</v>
+        <v>0.16109586454821895</v>
       </c>
       <c r="L26">
         <f t="shared" si="9"/>
@@ -4076,15 +4086,15 @@
       </c>
       <c r="O26">
         <f t="shared" si="12"/>
-        <v>-91</v>
+        <v>90</v>
       </c>
       <c r="P26">
         <f t="shared" si="13"/>
-        <v>-103</v>
+        <v>-145</v>
       </c>
       <c r="Q26">
         <f t="shared" si="14"/>
-        <v>163</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.15">
@@ -4125,7 +4135,7 @@
       </c>
       <c r="K27">
         <f t="shared" si="8"/>
-        <v>-0.23547654271926613</v>
+        <v>0.23547654271926613</v>
       </c>
       <c r="L27">
         <f t="shared" si="9"/>
@@ -4141,15 +4151,15 @@
       </c>
       <c r="O27">
         <f t="shared" si="12"/>
-        <v>-128</v>
+        <v>127</v>
       </c>
       <c r="P27">
         <f t="shared" si="13"/>
-        <v>-87</v>
+        <v>-146</v>
       </c>
       <c r="Q27">
         <f t="shared" si="14"/>
-        <v>175</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.15">
@@ -4190,7 +4200,7 @@
       </c>
       <c r="K28">
         <f t="shared" si="8"/>
-        <v>-0.30292811316041984</v>
+        <v>0.30292811316041984</v>
       </c>
       <c r="L28">
         <f t="shared" si="9"/>
@@ -4206,15 +4216,15 @@
       </c>
       <c r="O28">
         <f t="shared" si="12"/>
-        <v>-160</v>
+        <v>159</v>
       </c>
       <c r="P28">
         <f t="shared" si="13"/>
-        <v>-71</v>
+        <v>-146</v>
       </c>
       <c r="Q28">
         <f t="shared" si="14"/>
-        <v>184</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.15">
@@ -4255,7 +4265,7 @@
       </c>
       <c r="K29">
         <f t="shared" si="8"/>
-        <v>-0.36183940836708373</v>
+        <v>0.36183940836708373</v>
       </c>
       <c r="L29">
         <f t="shared" si="9"/>
@@ -4271,15 +4281,15 @@
       </c>
       <c r="O29">
         <f t="shared" si="12"/>
-        <v>-186</v>
+        <v>185</v>
       </c>
       <c r="P29">
         <f t="shared" si="13"/>
-        <v>-57</v>
+        <v>-143</v>
       </c>
       <c r="Q29">
         <f t="shared" si="14"/>
-        <v>191</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.15">
@@ -4320,7 +4330,7 @@
       </c>
       <c r="K30">
         <f t="shared" si="8"/>
-        <v>-0.4110452043571432</v>
+        <v>0.4110452043571432</v>
       </c>
       <c r="L30">
         <f t="shared" si="9"/>
@@ -4336,15 +4346,15 @@
       </c>
       <c r="O30">
         <f t="shared" si="12"/>
-        <v>-205</v>
+        <v>204</v>
       </c>
       <c r="P30">
         <f t="shared" si="13"/>
-        <v>-44</v>
+        <v>-139</v>
       </c>
       <c r="Q30">
         <f t="shared" si="14"/>
-        <v>195</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.15">
@@ -4385,7 +4395,7 @@
       </c>
       <c r="K31">
         <f t="shared" si="8"/>
-        <v>-0.44978975616883748</v>
+        <v>0.44978975616883748</v>
       </c>
       <c r="L31">
         <f t="shared" si="9"/>
@@ -4401,15 +4411,15 @@
       </c>
       <c r="O31">
         <f t="shared" si="12"/>
-        <v>-218</v>
+        <v>217</v>
       </c>
       <c r="P31">
         <f t="shared" si="13"/>
-        <v>-33</v>
+        <v>-135</v>
       </c>
       <c r="Q31">
         <f t="shared" si="14"/>
-        <v>197</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.15">
@@ -4450,7 +4460,7 @@
       </c>
       <c r="K32">
         <f t="shared" si="8"/>
-        <v>-0.47764484062449608</v>
+        <v>0.47764484062449608</v>
       </c>
       <c r="L32">
         <f t="shared" si="9"/>
@@ -4466,15 +4476,15 @@
       </c>
       <c r="O32">
         <f t="shared" si="12"/>
-        <v>-226</v>
+        <v>225</v>
       </c>
       <c r="P32">
         <f t="shared" si="13"/>
-        <v>-25</v>
+        <v>-130</v>
       </c>
       <c r="Q32">
         <f t="shared" si="14"/>
-        <v>198</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.15">
@@ -4515,7 +4525,7 @@
       </c>
       <c r="K33">
         <f t="shared" si="8"/>
-        <v>-0.49440692978035122</v>
+        <v>0.49440692978035122</v>
       </c>
       <c r="L33">
         <f t="shared" si="9"/>
@@ -4531,15 +4541,15 @@
       </c>
       <c r="O33">
         <f t="shared" si="12"/>
-        <v>-228</v>
+        <v>227</v>
       </c>
       <c r="P33">
         <f t="shared" si="13"/>
-        <v>-18</v>
+        <v>-124</v>
       </c>
       <c r="Q33">
         <f t="shared" si="14"/>
-        <v>196</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.15">
@@ -4580,7 +4590,7 @@
       </c>
       <c r="K34">
         <f t="shared" si="8"/>
-        <v>-0.49999999999999994</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="L34">
         <f t="shared" si="9"/>
@@ -4596,15 +4606,15 @@
       </c>
       <c r="O34">
         <f t="shared" si="12"/>
-        <v>-224</v>
+        <v>224</v>
       </c>
       <c r="P34">
         <f t="shared" si="13"/>
-        <v>-14</v>
+        <v>-118</v>
       </c>
       <c r="Q34">
         <f t="shared" si="14"/>
-        <v>193</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.15">
@@ -4645,7 +4655,7 @@
       </c>
       <c r="K35">
         <f t="shared" si="8"/>
-        <v>-0.49440692978035133</v>
+        <v>0.49440692978035133</v>
       </c>
       <c r="L35">
         <f t="shared" si="9"/>
@@ -4661,15 +4671,15 @@
       </c>
       <c r="O35">
         <f t="shared" si="12"/>
-        <v>-217</v>
+        <v>216</v>
       </c>
       <c r="P35">
         <f t="shared" si="13"/>
-        <v>-12</v>
+        <v>-113</v>
       </c>
       <c r="Q35">
         <f t="shared" si="14"/>
-        <v>189</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.15">
@@ -4710,7 +4720,7 @@
       </c>
       <c r="K36">
         <f t="shared" si="8"/>
-        <v>-0.47764484062449608</v>
+        <v>0.47764484062449608</v>
       </c>
       <c r="L36">
         <f t="shared" si="9"/>
@@ -4726,15 +4736,15 @@
       </c>
       <c r="O36">
         <f t="shared" si="12"/>
-        <v>-204</v>
+        <v>203</v>
       </c>
       <c r="P36">
         <f t="shared" si="13"/>
-        <v>-11</v>
+        <v>-106</v>
       </c>
       <c r="Q36">
         <f t="shared" si="14"/>
-        <v>182</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.15">
@@ -4775,7 +4785,7 @@
       </c>
       <c r="K37">
         <f t="shared" si="8"/>
-        <v>-0.4497897561688376</v>
+        <v>0.4497897561688376</v>
       </c>
       <c r="L37">
         <f t="shared" si="9"/>
@@ -4791,15 +4801,15 @@
       </c>
       <c r="O37">
         <f t="shared" si="12"/>
-        <v>-188</v>
+        <v>187</v>
       </c>
       <c r="P37">
         <f t="shared" si="13"/>
-        <v>-13</v>
+        <v>-101</v>
       </c>
       <c r="Q37">
         <f t="shared" si="14"/>
-        <v>175</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.15">
@@ -4840,7 +4850,7 @@
       </c>
       <c r="K38">
         <f t="shared" si="8"/>
-        <v>-0.41104520435714331</v>
+        <v>0.41104520435714331</v>
       </c>
       <c r="L38">
         <f t="shared" si="9"/>
@@ -4856,15 +4866,15 @@
       </c>
       <c r="O38">
         <f t="shared" si="12"/>
-        <v>-168</v>
+        <v>167</v>
       </c>
       <c r="P38">
         <f t="shared" si="13"/>
-        <v>-16</v>
+        <v>-94</v>
       </c>
       <c r="Q38">
         <f t="shared" si="14"/>
-        <v>167</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.15">
@@ -4905,7 +4915,7 @@
       </c>
       <c r="K39">
         <f t="shared" si="8"/>
-        <v>-0.36183940836708378</v>
+        <v>0.36183940836708378</v>
       </c>
       <c r="L39">
         <f t="shared" si="9"/>
@@ -4921,15 +4931,15 @@
       </c>
       <c r="O39">
         <f t="shared" si="12"/>
-        <v>-145</v>
+        <v>144</v>
       </c>
       <c r="P39">
         <f t="shared" si="13"/>
-        <v>-19</v>
+        <v>-87</v>
       </c>
       <c r="Q39">
         <f t="shared" si="14"/>
-        <v>158</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.15">
@@ -4970,7 +4980,7 @@
       </c>
       <c r="K40">
         <f t="shared" si="8"/>
-        <v>-0.30292811316041995</v>
+        <v>0.30292811316041995</v>
       </c>
       <c r="L40">
         <f t="shared" si="9"/>
@@ -4986,15 +4996,15 @@
       </c>
       <c r="O40">
         <f t="shared" si="12"/>
-        <v>-119</v>
+        <v>118</v>
       </c>
       <c r="P40">
         <f t="shared" si="13"/>
-        <v>-24</v>
+        <v>-79</v>
       </c>
       <c r="Q40">
         <f t="shared" si="14"/>
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.15">
@@ -5035,7 +5045,7 @@
       </c>
       <c r="K41">
         <f t="shared" si="8"/>
-        <v>-0.23547654271926655</v>
+        <v>0.23547654271926655</v>
       </c>
       <c r="L41">
         <f t="shared" si="9"/>
@@ -5051,15 +5061,15 @@
       </c>
       <c r="O41">
         <f t="shared" si="12"/>
-        <v>-90</v>
+        <v>89</v>
       </c>
       <c r="P41">
         <f t="shared" si="13"/>
-        <v>-28</v>
+        <v>-69</v>
       </c>
       <c r="Q41">
         <f t="shared" si="14"/>
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.15">
@@ -5100,7 +5110,7 @@
       </c>
       <c r="K42">
         <f t="shared" si="8"/>
-        <v>-0.16109586454821889</v>
+        <v>0.16109586454821889</v>
       </c>
       <c r="L42">
         <f t="shared" si="9"/>
@@ -5116,15 +5126,15 @@
       </c>
       <c r="O42">
         <f t="shared" si="12"/>
-        <v>-61</v>
+        <v>60</v>
       </c>
       <c r="P42">
         <f t="shared" si="13"/>
-        <v>-31</v>
+        <v>-59</v>
       </c>
       <c r="Q42">
         <f t="shared" si="14"/>
-        <v>122</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.15">
@@ -5165,7 +5175,7 @@
       </c>
       <c r="K43">
         <f t="shared" si="8"/>
-        <v>-8.181733636559517E-2</v>
+        <v>8.181733636559517E-2</v>
       </c>
       <c r="L43">
         <f t="shared" si="9"/>
@@ -5181,15 +5191,15 @@
       </c>
       <c r="O43">
         <f t="shared" si="12"/>
-        <v>-30</v>
+        <v>29</v>
       </c>
       <c r="P43">
         <f t="shared" si="13"/>
-        <v>-35</v>
+        <v>-48</v>
       </c>
       <c r="Q43">
         <f t="shared" si="14"/>
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.15">
@@ -5230,7 +5240,7 @@
       </c>
       <c r="K44">
         <f t="shared" si="8"/>
-        <v>-1.2829724618326021E-16</v>
+        <v>1.2829724618326021E-16</v>
       </c>
       <c r="L44">
         <f t="shared" si="9"/>
@@ -5246,15 +5256,15 @@
       </c>
       <c r="O44">
         <f t="shared" si="12"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P44">
         <f t="shared" si="13"/>
-        <v>-37</v>
+        <v>-36</v>
       </c>
       <c r="Q44">
         <f t="shared" si="14"/>
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.15">
@@ -5295,7 +5305,7 @@
       </c>
       <c r="K45">
         <f t="shared" si="8"/>
-        <v>8.1817336365594448E-2</v>
+        <v>-8.1817336365594448E-2</v>
       </c>
       <c r="L45">
         <f t="shared" si="9"/>
@@ -5311,15 +5321,15 @@
       </c>
       <c r="O45">
         <f t="shared" si="12"/>
-        <v>28</v>
+        <v>-29</v>
       </c>
       <c r="P45">
         <f t="shared" si="13"/>
-        <v>-38</v>
+        <v>-24</v>
       </c>
       <c r="Q45">
         <f t="shared" si="14"/>
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.15">
@@ -5360,7 +5370,7 @@
       </c>
       <c r="K46">
         <f t="shared" si="8"/>
-        <v>0.16109586454821867</v>
+        <v>-0.16109586454821867</v>
       </c>
       <c r="L46">
         <f t="shared" si="9"/>
@@ -5376,15 +5386,15 @@
       </c>
       <c r="O46">
         <f t="shared" si="12"/>
-        <v>55</v>
+        <v>-56</v>
       </c>
       <c r="P46">
         <f t="shared" si="13"/>
-        <v>-38</v>
+        <v>-11</v>
       </c>
       <c r="Q46">
         <f t="shared" si="14"/>
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.15">
@@ -5425,7 +5435,7 @@
       </c>
       <c r="K47">
         <f t="shared" si="8"/>
-        <v>0.23547654271926632</v>
+        <v>-0.23547654271926632</v>
       </c>
       <c r="L47">
         <f t="shared" si="9"/>
@@ -5441,15 +5451,15 @@
       </c>
       <c r="O47">
         <f t="shared" si="12"/>
-        <v>79</v>
+        <v>-80</v>
       </c>
       <c r="P47">
         <f t="shared" si="13"/>
-        <v>-37</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <f t="shared" si="14"/>
-        <v>58</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.15">
@@ -5490,7 +5500,7 @@
       </c>
       <c r="K48">
         <f t="shared" si="8"/>
-        <v>0.30292811316042012</v>
+        <v>-0.30292811316042012</v>
       </c>
       <c r="L48">
         <f t="shared" si="9"/>
@@ -5506,15 +5516,15 @@
       </c>
       <c r="O48">
         <f t="shared" si="12"/>
-        <v>100</v>
+        <v>-101</v>
       </c>
       <c r="P48">
         <f t="shared" si="13"/>
-        <v>-35</v>
+        <v>13</v>
       </c>
       <c r="Q48">
         <f t="shared" si="14"/>
-        <v>47</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.15">
@@ -5555,7 +5565,7 @@
       </c>
       <c r="K49">
         <f t="shared" si="8"/>
-        <v>0.36183940836708367</v>
+        <v>-0.36183940836708367</v>
       </c>
       <c r="L49">
         <f t="shared" si="9"/>
@@ -5571,15 +5581,15 @@
       </c>
       <c r="O49">
         <f t="shared" si="12"/>
-        <v>117</v>
+        <v>-118</v>
       </c>
       <c r="P49">
         <f t="shared" si="13"/>
-        <v>-32</v>
+        <v>24</v>
       </c>
       <c r="Q49">
         <f t="shared" si="14"/>
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.15">
@@ -5620,7 +5630,7 @@
       </c>
       <c r="K50">
         <f t="shared" si="8"/>
-        <v>0.41104520435714292</v>
+        <v>-0.41104520435714292</v>
       </c>
       <c r="L50">
         <f t="shared" si="9"/>
@@ -5636,15 +5646,15 @@
       </c>
       <c r="O50">
         <f t="shared" si="12"/>
-        <v>131</v>
+        <v>-132</v>
       </c>
       <c r="P50">
         <f t="shared" si="13"/>
-        <v>-29</v>
+        <v>33</v>
       </c>
       <c r="Q50">
         <f t="shared" si="14"/>
-        <v>31</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.15">
@@ -5685,7 +5695,7 @@
       </c>
       <c r="K51">
         <f t="shared" si="8"/>
-        <v>0.44978975616883743</v>
+        <v>-0.44978975616883743</v>
       </c>
       <c r="L51">
         <f t="shared" si="9"/>
@@ -5701,15 +5711,15 @@
       </c>
       <c r="O51">
         <f t="shared" si="12"/>
-        <v>141</v>
+        <v>-142</v>
       </c>
       <c r="P51">
         <f t="shared" si="13"/>
-        <v>-26</v>
+        <v>41</v>
       </c>
       <c r="Q51">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.15">
@@ -5750,7 +5760,7 @@
       </c>
       <c r="K52">
         <f t="shared" si="8"/>
-        <v>0.47764484062449608</v>
+        <v>-0.47764484062449608</v>
       </c>
       <c r="L52">
         <f t="shared" si="9"/>
@@ -5766,15 +5776,15 @@
       </c>
       <c r="O52">
         <f t="shared" si="12"/>
-        <v>147</v>
+        <v>-148</v>
       </c>
       <c r="P52">
         <f t="shared" si="13"/>
-        <v>-24</v>
+        <v>46</v>
       </c>
       <c r="Q52">
         <f t="shared" si="14"/>
-        <v>21</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.15">
@@ -5815,7 +5825,7 @@
       </c>
       <c r="K53">
         <f t="shared" si="8"/>
-        <v>0.49440692978035133</v>
+        <v>-0.49440692978035133</v>
       </c>
       <c r="L53">
         <f t="shared" si="9"/>
@@ -5831,15 +5841,15 @@
       </c>
       <c r="O53">
         <f t="shared" si="12"/>
-        <v>150</v>
+        <v>-151</v>
       </c>
       <c r="P53">
         <f t="shared" si="13"/>
-        <v>-21</v>
+        <v>50</v>
       </c>
       <c r="Q53">
         <f t="shared" si="14"/>
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.15">
@@ -5880,7 +5890,7 @@
       </c>
       <c r="K54">
         <f t="shared" si="8"/>
-        <v>0.49999999999999994</v>
+        <v>-0.49999999999999994</v>
       </c>
       <c r="L54">
         <f t="shared" si="9"/>
@@ -5896,15 +5906,15 @@
       </c>
       <c r="O54">
         <f t="shared" si="12"/>
-        <v>149</v>
+        <v>-150</v>
       </c>
       <c r="P54">
         <f t="shared" si="13"/>
-        <v>-19</v>
+        <v>52</v>
       </c>
       <c r="Q54">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.15">
@@ -5945,7 +5955,7 @@
       </c>
       <c r="K55">
         <f t="shared" si="8"/>
-        <v>0.49440692978035133</v>
+        <v>-0.49440692978035133</v>
       </c>
       <c r="L55">
         <f t="shared" si="9"/>
@@ -5961,15 +5971,15 @@
       </c>
       <c r="O55">
         <f t="shared" si="12"/>
-        <v>145</v>
+        <v>-146</v>
       </c>
       <c r="P55">
         <f t="shared" si="13"/>
-        <v>-17</v>
+        <v>52</v>
       </c>
       <c r="Q55">
         <f t="shared" si="14"/>
-        <v>19</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.15">
@@ -6010,7 +6020,7 @@
       </c>
       <c r="K56">
         <f t="shared" si="8"/>
-        <v>0.47764484062449608</v>
+        <v>-0.47764484062449608</v>
       </c>
       <c r="L56">
         <f t="shared" si="9"/>
@@ -6026,15 +6036,15 @@
       </c>
       <c r="O56">
         <f t="shared" si="12"/>
-        <v>138</v>
+        <v>-139</v>
       </c>
       <c r="P56">
         <f t="shared" si="13"/>
-        <v>-15</v>
+        <v>51</v>
       </c>
       <c r="Q56">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.15">
@@ -6075,7 +6085,7 @@
       </c>
       <c r="K57">
         <f t="shared" si="8"/>
-        <v>0.44978975616883787</v>
+        <v>-0.44978975616883787</v>
       </c>
       <c r="L57">
         <f t="shared" si="9"/>
@@ -6091,15 +6101,15 @@
       </c>
       <c r="O57">
         <f t="shared" si="12"/>
-        <v>127</v>
+        <v>-128</v>
       </c>
       <c r="P57">
         <f t="shared" si="13"/>
-        <v>-14</v>
+        <v>47</v>
       </c>
       <c r="Q57">
         <f t="shared" si="14"/>
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.15">
@@ -6140,7 +6150,7 @@
       </c>
       <c r="K58">
         <f t="shared" si="8"/>
-        <v>0.41104520435714337</v>
+        <v>-0.41104520435714337</v>
       </c>
       <c r="L58">
         <f t="shared" si="9"/>
@@ -6156,15 +6166,15 @@
       </c>
       <c r="O58">
         <f t="shared" si="12"/>
-        <v>115</v>
+        <v>-116</v>
       </c>
       <c r="P58">
         <f t="shared" si="13"/>
-        <v>-12</v>
+        <v>43</v>
       </c>
       <c r="Q58">
         <f t="shared" si="14"/>
-        <v>32</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.15">
@@ -6205,7 +6215,7 @@
       </c>
       <c r="K59">
         <f t="shared" si="8"/>
-        <v>0.36183940836708417</v>
+        <v>-0.36183940836708417</v>
       </c>
       <c r="L59">
         <f t="shared" si="9"/>
@@ -6221,15 +6231,15 @@
       </c>
       <c r="O59">
         <f t="shared" si="12"/>
-        <v>99</v>
+        <v>-100</v>
       </c>
       <c r="P59">
         <f t="shared" si="13"/>
-        <v>-10</v>
+        <v>37</v>
       </c>
       <c r="Q59">
         <f t="shared" si="14"/>
-        <v>39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.15">
@@ -6270,7 +6280,7 @@
       </c>
       <c r="K60">
         <f t="shared" si="8"/>
-        <v>0.30292811316041995</v>
+        <v>-0.30292811316041995</v>
       </c>
       <c r="L60">
         <f t="shared" si="9"/>
@@ -6286,15 +6296,15 @@
       </c>
       <c r="O60">
         <f t="shared" si="12"/>
-        <v>82</v>
+        <v>-83</v>
       </c>
       <c r="P60">
         <f t="shared" si="13"/>
-        <v>-8</v>
+        <v>31</v>
       </c>
       <c r="Q60">
         <f t="shared" si="14"/>
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.15">
@@ -6335,7 +6345,7 @@
       </c>
       <c r="K61">
         <f t="shared" si="8"/>
-        <v>0.23547654271926616</v>
+        <v>-0.23547654271926616</v>
       </c>
       <c r="L61">
         <f t="shared" si="9"/>
@@ -6351,15 +6361,15 @@
       </c>
       <c r="O61">
         <f t="shared" si="12"/>
-        <v>62</v>
+        <v>-63</v>
       </c>
       <c r="P61">
         <f t="shared" si="13"/>
-        <v>-5</v>
+        <v>25</v>
       </c>
       <c r="Q61">
         <f t="shared" si="14"/>
-        <v>54</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.15">
@@ -6400,7 +6410,7 @@
       </c>
       <c r="K62">
         <f t="shared" si="8"/>
-        <v>0.16109586454821898</v>
+        <v>-0.16109586454821898</v>
       </c>
       <c r="L62">
         <f t="shared" si="9"/>
@@ -6416,15 +6426,15 @@
       </c>
       <c r="O62">
         <f t="shared" si="12"/>
-        <v>42</v>
+        <v>-43</v>
       </c>
       <c r="P62">
         <f t="shared" si="13"/>
-        <v>-3</v>
+        <v>18</v>
       </c>
       <c r="Q62">
         <f t="shared" si="14"/>
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.15">
@@ -6465,7 +6475,7 @@
       </c>
       <c r="K63">
         <f t="shared" si="8"/>
-        <v>8.1817336365594753E-2</v>
+        <v>-8.1817336365594753E-2</v>
       </c>
       <c r="L63">
         <f t="shared" si="9"/>
@@ -6481,15 +6491,15 @@
       </c>
       <c r="O63">
         <f t="shared" si="12"/>
-        <v>21</v>
+        <v>-22</v>
       </c>
       <c r="P63">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q63">
         <f t="shared" si="14"/>
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.15">
@@ -6530,7 +6540,7 @@
       </c>
       <c r="K64">
         <f t="shared" si="8"/>
-        <v>1.9244586927489033E-16</v>
+        <v>-1.9244586927489033E-16</v>
       </c>
       <c r="L64">
         <f t="shared" si="9"/>
@@ -6546,7 +6556,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P64">
         <f t="shared" si="13"/>
@@ -6567,10 +6577,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K64"/>
+  <dimension ref="B1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6578,14 +6588,15 @@
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="13.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
         <v>13</v>
       </c>
@@ -6593,7 +6604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -6610,22 +6621,25 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>0</v>
       </c>
@@ -6642,31 +6656,35 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <f>211-211*E4+40*D4</f>
+        <f>211-211*E4+80*D4</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>40-211*D4-40*E4</f>
+        <f>80-211*D4-80*E4</f>
         <v>0</v>
       </c>
       <c r="H4">
+        <f>G4/2</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
         <f>INT(E4*256)</f>
         <v>256</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f>INT(D4*256)</f>
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f>INT(F4)</f>
         <v>0</v>
       </c>
-      <c r="K4">
-        <f>INT(G4)+192</f>
+      <c r="L4">
+        <f>INT(H4)+192</f>
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1</v>
       </c>
@@ -6683,31 +6701,35 @@
         <v>0.99452189536827329</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F64" si="3">211-211*E5+40*D5</f>
-        <v>5.3370186080004798</v>
+        <f t="shared" ref="F5:F64" si="3">211-211*E5+80*D5</f>
+        <v>9.5181571387066182</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G64" si="4">40-211*D5-40*E5</f>
-        <v>-21.836381564205812</v>
+        <f t="shared" ref="G5:G64" si="4">80-211*D5-80*E5</f>
+        <v>-21.617257378936742</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H64" si="5">INT(E5*256)</f>
+        <f t="shared" ref="H5:H64" si="5">G5/2</f>
+        <v>-10.808628689468371</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I64" si="6">INT(E5*256)</f>
         <v>254</v>
       </c>
-      <c r="I5">
-        <f t="shared" ref="I5:I64" si="6">INT(D5*256)</f>
+      <c r="J5">
+        <f t="shared" ref="J5:J64" si="7">INT(D5*256)</f>
         <v>26</v>
       </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J64" si="7">INT(F5)</f>
-        <v>5</v>
-      </c>
       <c r="K5">
-        <f t="shared" ref="K5:K64" si="8">INT(G5)+192</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+        <f t="shared" ref="K5:K64" si="8">INT(F5)</f>
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L64" si="9">INT(H5)+192</f>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>2</v>
       </c>
@@ -6725,30 +6747,34 @@
       </c>
       <c r="F6">
         <f t="shared" si="3"/>
-        <v>12.927323877877358</v>
+        <v>21.24379151058773</v>
       </c>
       <c r="G6">
         <f t="shared" si="4"/>
-        <v>-42.995270791899443</v>
+        <v>-42.121174821251671</v>
       </c>
       <c r="H6">
         <f t="shared" si="5"/>
+        <v>-21.060587410625836</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="6"/>
+      <c r="J6">
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
       <c r="K6">
         <f t="shared" si="8"/>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="9"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>3</v>
       </c>
@@ -6766,30 +6792,34 @@
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>22.687754836720508</v>
+        <v>35.048434611718406</v>
       </c>
       <c r="G7">
         <f t="shared" si="4"/>
-        <v>-63.244846464920037</v>
+        <v>-61.287107116726176</v>
       </c>
       <c r="H7">
         <f t="shared" si="5"/>
+        <v>-30.643553558363088</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="6"/>
         <v>243</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="6"/>
+      <c r="J7">
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
       <c r="K7">
         <f t="shared" si="8"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="9"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>4</v>
       </c>
@@ -6807,30 +6837,34 @@
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>34.511374160443218</v>
+        <v>50.780839883475224</v>
       </c>
       <c r="G8">
         <f t="shared" si="4"/>
-        <v>-82.363249994697867</v>
+        <v>-78.905068300401894</v>
       </c>
       <c r="H8">
         <f t="shared" si="5"/>
+        <v>-39.452534150200947</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="6"/>
         <v>233</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="6"/>
+      <c r="J8">
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
       <c r="K8">
         <f t="shared" si="8"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="9"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>5</v>
       </c>
@@ -6848,30 +6882,34 @@
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>48.268639801483431</v>
+        <v>68.268639801483431</v>
       </c>
       <c r="G9">
         <f t="shared" si="4"/>
-        <v>-100.14101615137753</v>
+        <v>-94.782032302755084</v>
       </c>
       <c r="H9">
         <f t="shared" si="5"/>
+        <v>-47.391016151377542</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="6"/>
         <v>221</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="6"/>
+      <c r="J9">
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
       <c r="K9">
         <f t="shared" si="8"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="9"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>6</v>
       </c>
@@ -6889,30 +6927,34 @@
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>63.808824278585028</v>
+        <v>87.320234370283956</v>
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
-        <v>-116.38336800870974</v>
+        <v>-108.74404778370763</v>
       </c>
       <c r="H10">
         <f t="shared" si="5"/>
+        <v>-54.372023891853814</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="6"/>
         <v>207</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="6"/>
+      <c r="J10">
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="J10">
-        <f t="shared" si="7"/>
-        <v>63</v>
-      </c>
       <c r="K10">
         <f t="shared" si="8"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="9"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>7</v>
       </c>
@@ -6930,30 +6972,34 @@
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>80.961666078624148</v>
+        <v>107.72689033297847</v>
       </c>
       <c r="G11">
         <f t="shared" si="4"/>
-        <v>-130.91235096081485</v>
+        <v>-120.63814397991062</v>
       </c>
       <c r="H11">
         <f t="shared" si="5"/>
+        <v>-60.319071989955312</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="6"/>
+      <c r="J11">
+        <f t="shared" si="7"/>
         <v>171</v>
       </c>
-      <c r="J11">
-        <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
       <c r="K11">
         <f t="shared" si="8"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="9"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>8</v>
       </c>
@@ -6971,30 +7017,34 @@
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>99.539235077376674</v>
+        <v>129.26502809647243</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>-143.5687824300845</v>
+        <v>-130.3340066844388</v>
       </c>
       <c r="H12">
         <f t="shared" si="5"/>
+        <v>-65.167003342219402</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="6"/>
         <v>171</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="6"/>
+      <c r="J12">
+        <f t="shared" si="7"/>
         <v>190</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="7"/>
-        <v>99</v>
-      </c>
       <c r="K12">
         <f t="shared" si="8"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="9"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>9</v>
       </c>
@@ -7012,30 +7062,34 @@
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>119.33799154128607</v>
+        <v>151.69867131628396</v>
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
-        <v>-154.21399590481283</v>
+        <v>-137.72540599651177</v>
       </c>
       <c r="H13">
         <f t="shared" si="5"/>
+        <v>-68.862702998255884</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="6"/>
+      <c r="J13">
+        <f t="shared" si="7"/>
         <v>207</v>
       </c>
-      <c r="J13">
-        <f t="shared" si="7"/>
-        <v>119</v>
-      </c>
       <c r="K13">
         <f t="shared" si="8"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+        <v>151</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="9"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>10</v>
       </c>
@@ -7053,30 +7107,34 @@
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>140.14101615137753</v>
+        <v>174.78203230275506</v>
       </c>
       <c r="G14">
         <f t="shared" si="4"/>
-        <v>-162.73136019851654</v>
+        <v>-142.73136019851654</v>
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
+        <v>-71.36568009925827</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
         <v>128</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="6"/>
+      <c r="J14">
+        <f t="shared" si="7"/>
         <v>221</v>
       </c>
-      <c r="J14">
-        <f t="shared" si="7"/>
-        <v>140</v>
-      </c>
       <c r="K14">
         <f t="shared" si="8"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>11</v>
       </c>
@@ -7094,30 +7152,34 @@
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>161.72038661671016</v>
+        <v>198.26220492241418</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
-        <v>-169.02755728562079</v>
+        <v>-145.29702300865281</v>
       </c>
       <c r="H15">
         <f t="shared" si="5"/>
+        <v>-72.648511504326407</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="6"/>
+      <c r="J15">
+        <f t="shared" si="7"/>
         <v>233</v>
       </c>
-      <c r="J15">
-        <f t="shared" si="7"/>
-        <v>161</v>
-      </c>
       <c r="K15">
         <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+        <v>198</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="9"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>12</v>
       </c>
@@ -7135,30 +7197,34 @@
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>183.83967483869225</v>
+        <v>221.88193549049839</v>
       </c>
       <c r="G16">
         <f t="shared" si="4"/>
-        <v>-173.03360471327528</v>
+        <v>-145.39428448827317</v>
       </c>
       <c r="H16">
         <f t="shared" si="5"/>
+        <v>-72.697142244136586</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="6"/>
+      <c r="J16">
+        <f t="shared" si="7"/>
         <v>243</v>
       </c>
-      <c r="J16">
-        <f t="shared" si="7"/>
-        <v>183</v>
-      </c>
       <c r="K16">
         <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+        <v>221</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="9"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>13</v>
       </c>
@@ -7176,30 +7242,34 @@
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>206.25653726680503</v>
+        <v>245.38244129615725</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
-        <v>-174.70561138754337</v>
+        <v>-143.02207902025376</v>
       </c>
       <c r="H17">
         <f t="shared" si="5"/>
+        <v>-71.511039510126878</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="6"/>
+      <c r="J17">
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
-      <c r="J17">
-        <f t="shared" si="7"/>
-        <v>206</v>
-      </c>
       <c r="K17">
         <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>14</v>
       </c>
@@ -7217,30 +7287,34 @@
       </c>
       <c r="F18">
         <f t="shared" si="3"/>
-        <v>228.72537006525604</v>
+        <v>268.50624587998698</v>
       </c>
       <c r="G18">
         <f t="shared" si="4"/>
-        <v>-174.02525845341179</v>
+        <v>-138.20639698411793</v>
       </c>
       <c r="H18">
         <f t="shared" si="5"/>
+        <v>-69.103198492058965</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="6"/>
+      <c r="J18">
+        <f t="shared" si="7"/>
         <v>254</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="7"/>
-        <v>228</v>
-      </c>
       <c r="K18">
         <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="9"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>15</v>
       </c>
@@ -7258,30 +7332,34 @@
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
-        <v>-171</v>
+        <v>-131</v>
       </c>
       <c r="H19">
         <f t="shared" si="5"/>
+        <v>-65.5</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="6"/>
+      <c r="J19">
+        <f t="shared" si="7"/>
         <v>256</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="7"/>
-        <v>251</v>
-      </c>
       <c r="K19">
         <f t="shared" si="8"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="9"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>16</v>
       </c>
@@ -7299,30 +7377,34 @@
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
-        <v>272.83638156420579</v>
+        <v>312.61725737893676</v>
       </c>
       <c r="G20">
         <f t="shared" si="4"/>
-        <v>-165.66298139199955</v>
+        <v>-121.48184286129342</v>
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
+        <v>-60.740921430646708</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
         <v>-27</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="6"/>
+      <c r="J20">
+        <f t="shared" si="7"/>
         <v>254</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="7"/>
-        <v>272</v>
-      </c>
       <c r="K20">
         <f t="shared" si="8"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+        <v>312</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="9"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>17</v>
       </c>
@@ -7340,30 +7422,34 @@
       </c>
       <c r="F21">
         <f t="shared" si="3"/>
-        <v>293.99527079189943</v>
+        <v>333.12117482125166</v>
       </c>
       <c r="G21">
         <f t="shared" si="4"/>
-        <v>-158.07267612212266</v>
+        <v>-109.75620848941229</v>
       </c>
       <c r="H21">
         <f t="shared" si="5"/>
+        <v>-54.878104244706144</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
         <v>-54</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="6"/>
+      <c r="J21">
+        <f t="shared" si="7"/>
         <v>250</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="7"/>
-        <v>293</v>
-      </c>
       <c r="K21">
         <f t="shared" si="8"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+        <v>333</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="9"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>18</v>
       </c>
@@ -7381,30 +7467,34 @@
       </c>
       <c r="F22">
         <f t="shared" si="3"/>
-        <v>314.24484646492004</v>
+        <v>352.28710711672619</v>
       </c>
       <c r="G22">
         <f t="shared" si="4"/>
-        <v>-148.31224516327953</v>
+        <v>-95.951565388281637</v>
       </c>
       <c r="H22">
         <f t="shared" si="5"/>
+        <v>-47.975782694140818</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
         <v>-80</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="6"/>
+      <c r="J22">
+        <f t="shared" si="7"/>
         <v>243</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="7"/>
-        <v>314</v>
-      </c>
       <c r="K22">
         <f t="shared" si="8"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+        <v>352</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="9"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>19</v>
       </c>
@@ -7422,30 +7512,34 @@
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
-        <v>333.36324999469787</v>
+        <v>369.90506830040192</v>
       </c>
       <c r="G23">
         <f t="shared" si="4"/>
-        <v>-136.48862583955682</v>
+        <v>-80.219160116524819</v>
       </c>
       <c r="H23">
         <f t="shared" si="5"/>
+        <v>-40.109580058262409</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="6"/>
         <v>-105</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="6"/>
+      <c r="J23">
+        <f t="shared" si="7"/>
         <v>233</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="7"/>
-        <v>333</v>
-      </c>
       <c r="K23">
         <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+        <v>369</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="9"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>20</v>
       </c>
@@ -7463,30 +7557,34 @@
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>351.14101615137747</v>
+        <v>385.78203230275506</v>
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
-        <v>-122.73136019851657</v>
+        <v>-62.731360198516583</v>
       </c>
       <c r="H24">
         <f t="shared" si="5"/>
+        <v>-31.365680099258292</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="6"/>
         <v>-128</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="6"/>
+      <c r="J24">
+        <f t="shared" si="7"/>
         <v>221</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="7"/>
-        <v>351</v>
-      </c>
       <c r="K24">
         <f t="shared" si="8"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+        <v>385</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>21</v>
       </c>
@@ -7504,30 +7602,34 @@
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>367.38336800870968</v>
+        <v>399.74404778370757</v>
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
-        <v>-107.19117572141498</v>
+        <v>-43.679765629716059</v>
       </c>
       <c r="H25">
         <f t="shared" si="5"/>
+        <v>-21.839882814858029</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="6"/>
         <v>-151</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="6"/>
+      <c r="J25">
+        <f t="shared" si="7"/>
         <v>207</v>
       </c>
-      <c r="J25">
-        <f t="shared" si="7"/>
-        <v>367</v>
-      </c>
       <c r="K25">
         <f t="shared" si="8"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+        <v>399</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="9"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>22</v>
       </c>
@@ -7545,30 +7647,34 @@
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
-        <v>381.91235096081476</v>
+        <v>411.63814397991058</v>
       </c>
       <c r="G26">
         <f t="shared" si="4"/>
-        <v>-90.038333921375937</v>
+        <v>-23.273109667021615</v>
       </c>
       <c r="H26">
         <f t="shared" si="5"/>
+        <v>-11.636554833510807</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="6"/>
         <v>-172</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="6"/>
+      <c r="J26">
+        <f t="shared" si="7"/>
         <v>190</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="7"/>
-        <v>381</v>
-      </c>
       <c r="K26">
         <f t="shared" si="8"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+        <v>411</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>23</v>
       </c>
@@ -7586,30 +7692,34 @@
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>394.56878243008458</v>
+        <v>421.33400668443892</v>
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
-        <v>-71.460764922623255</v>
+        <v>-1.7349719035274802</v>
       </c>
       <c r="H27">
         <f t="shared" si="5"/>
+        <v>-0.8674859517637401</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="6"/>
         <v>-191</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="6"/>
+      <c r="J27">
+        <f t="shared" si="7"/>
         <v>171</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="7"/>
-        <v>394</v>
-      </c>
       <c r="K27">
         <f t="shared" si="8"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+        <v>421</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="9"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>24</v>
       </c>
@@ -7627,30 +7737,34 @@
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
-        <v>405.2139959048128</v>
+        <v>428.72540599651177</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>-51.66200845871397</v>
+        <v>20.698671316283921</v>
       </c>
       <c r="H28">
         <f t="shared" si="5"/>
+        <v>10.34933565814196</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="6"/>
         <v>-208</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="6"/>
+      <c r="J28">
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="7"/>
-        <v>405</v>
-      </c>
       <c r="K28">
         <f t="shared" si="8"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="9"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>25</v>
       </c>
@@ -7668,30 +7782,34 @@
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
-        <v>413.73136019851654</v>
+        <v>433.73136019851654</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
-        <v>-30.858983848622437</v>
+        <v>43.782032302755113</v>
       </c>
       <c r="H29">
         <f t="shared" si="5"/>
+        <v>21.891016151377556</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="6"/>
         <v>-222</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="6"/>
+      <c r="J29">
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="7"/>
-        <v>413</v>
-      </c>
       <c r="K29">
         <f t="shared" si="8"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+        <v>433</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="9"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>26</v>
       </c>
@@ -7709,30 +7827,34 @@
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
-        <v>420.02755728562079</v>
+        <v>436.29702300865279</v>
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
-        <v>-9.2796133832897709</v>
+        <v>67.26220492241427</v>
       </c>
       <c r="H30">
         <f t="shared" si="5"/>
+        <v>33.631102461207135</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="6"/>
         <v>-234</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="6"/>
+      <c r="J30">
+        <f t="shared" si="7"/>
         <v>104</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="7"/>
-        <v>420</v>
-      </c>
       <c r="K30">
         <f t="shared" si="8"/>
-        <v>182</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+        <v>436</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="9"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>27</v>
       </c>
@@ -7750,30 +7872,34 @@
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>424.03360471327528</v>
+        <v>436.39428448827317</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
-        <v>12.839674838692211</v>
+        <v>90.88193549049835</v>
       </c>
       <c r="H31">
         <f t="shared" si="5"/>
+        <v>45.440967745249175</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="6"/>
         <v>-244</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="6"/>
+      <c r="J31">
+        <f t="shared" si="7"/>
         <v>79</v>
       </c>
-      <c r="J31">
-        <f t="shared" si="7"/>
-        <v>424</v>
-      </c>
       <c r="K31">
         <f t="shared" si="8"/>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+        <v>436</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="9"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>28</v>
       </c>
@@ -7791,30 +7917,34 @@
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
-        <v>425.7056113875434</v>
+        <v>434.02207902025378</v>
       </c>
       <c r="G32">
         <f t="shared" si="4"/>
-        <v>35.256537266805012</v>
+        <v>114.38244129615724</v>
       </c>
       <c r="H32">
         <f t="shared" si="5"/>
+        <v>57.19122064807862</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="6"/>
         <v>-251</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="6"/>
+      <c r="J32">
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
-      <c r="J32">
-        <f t="shared" si="7"/>
-        <v>425</v>
-      </c>
       <c r="K32">
         <f t="shared" si="8"/>
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.15">
+        <v>434</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="9"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B33">
         <v>29</v>
       </c>
@@ -7832,30 +7962,34 @@
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
-        <v>425.02525845341182</v>
+        <v>429.20639698411793</v>
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>57.725370065255994</v>
+        <v>137.50624587998692</v>
       </c>
       <c r="H33">
         <f t="shared" si="5"/>
+        <v>68.75312293999346</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="6"/>
         <v>-255</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="6"/>
+      <c r="J33">
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="J33">
-        <f t="shared" si="7"/>
-        <v>425</v>
-      </c>
       <c r="K33">
         <f t="shared" si="8"/>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.15">
+        <v>429</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="9"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>30</v>
       </c>
@@ -7877,26 +8011,30 @@
       </c>
       <c r="G34">
         <f t="shared" si="4"/>
-        <v>79.999999999999972</v>
+        <v>159.99999999999997</v>
       </c>
       <c r="H34">
         <f t="shared" si="5"/>
+        <v>79.999999999999986</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="6"/>
         <v>-256</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="6"/>
+      <c r="J34">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J34">
-        <f t="shared" si="7"/>
+      <c r="K34">
+        <f t="shared" si="8"/>
         <v>422</v>
       </c>
-      <c r="K34">
-        <f t="shared" si="8"/>
+      <c r="L34">
+        <f t="shared" si="9"/>
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>31</v>
       </c>
@@ -7914,30 +8052,34 @@
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
-        <v>416.66298139199949</v>
+        <v>412.48184286129339</v>
       </c>
       <c r="G35">
         <f t="shared" si="4"/>
-        <v>101.83638156420582</v>
+        <v>181.61725737893676</v>
       </c>
       <c r="H35">
         <f t="shared" si="5"/>
+        <v>90.808628689468378</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="6"/>
         <v>-255</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="6"/>
+      <c r="J35">
+        <f t="shared" si="7"/>
         <v>-27</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="7"/>
-        <v>416</v>
-      </c>
       <c r="K35">
         <f t="shared" si="8"/>
-        <v>293</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.15">
+        <v>412</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="9"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>32</v>
       </c>
@@ -7955,30 +8097,34 @@
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
-        <v>409.07267612212263</v>
+        <v>400.7562084894123</v>
       </c>
       <c r="G36">
         <f t="shared" si="4"/>
-        <v>122.9952707918994</v>
+        <v>202.12117482125163</v>
       </c>
       <c r="H36">
         <f t="shared" si="5"/>
+        <v>101.06058741062581</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="6"/>
         <v>-251</v>
       </c>
-      <c r="I36">
-        <f t="shared" si="6"/>
+      <c r="J36">
+        <f t="shared" si="7"/>
         <v>-54</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="7"/>
-        <v>409</v>
-      </c>
       <c r="K36">
         <f t="shared" si="8"/>
-        <v>314</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
+        <v>400</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="9"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B37">
         <v>33</v>
       </c>
@@ -7996,30 +8142,34 @@
       </c>
       <c r="F37">
         <f t="shared" si="3"/>
-        <v>399.3122451632795</v>
+        <v>386.95156538828155</v>
       </c>
       <c r="G37">
         <f t="shared" si="4"/>
-        <v>143.2448464649201</v>
+        <v>221.28710711672625</v>
       </c>
       <c r="H37">
         <f t="shared" si="5"/>
+        <v>110.64355355836312</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="6"/>
         <v>-244</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="6"/>
+      <c r="J37">
+        <f t="shared" si="7"/>
         <v>-80</v>
       </c>
-      <c r="J37">
-        <f t="shared" si="7"/>
-        <v>399</v>
-      </c>
       <c r="K37">
         <f t="shared" si="8"/>
-        <v>335</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.15">
+        <v>386</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="9"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>34</v>
       </c>
@@ -8037,30 +8187,34 @@
       </c>
       <c r="F38">
         <f t="shared" si="3"/>
-        <v>387.48862583955679</v>
+        <v>371.21916011652479</v>
       </c>
       <c r="G38">
         <f t="shared" si="4"/>
-        <v>162.36324999469781</v>
+        <v>238.90506830040184</v>
       </c>
       <c r="H38">
         <f t="shared" si="5"/>
+        <v>119.45253415020092</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="6"/>
         <v>-234</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="6"/>
+      <c r="J38">
+        <f t="shared" si="7"/>
         <v>-105</v>
       </c>
-      <c r="J38">
-        <f t="shared" si="7"/>
-        <v>387</v>
-      </c>
       <c r="K38">
         <f t="shared" si="8"/>
-        <v>354</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.15">
+        <v>371</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="9"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B39">
         <v>35</v>
       </c>
@@ -8078,30 +8232,34 @@
       </c>
       <c r="F39">
         <f t="shared" si="3"/>
-        <v>373.73136019851654</v>
+        <v>353.73136019851654</v>
       </c>
       <c r="G39">
         <f t="shared" si="4"/>
-        <v>180.14101615137758</v>
+        <v>254.78203230275511</v>
       </c>
       <c r="H39">
         <f t="shared" si="5"/>
+        <v>127.39101615137756</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="6"/>
         <v>-222</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="6"/>
+      <c r="J39">
+        <f t="shared" si="7"/>
         <v>-128</v>
       </c>
-      <c r="J39">
-        <f t="shared" si="7"/>
-        <v>373</v>
-      </c>
       <c r="K39">
         <f t="shared" si="8"/>
-        <v>372</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.15">
+        <v>353</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="9"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>36</v>
       </c>
@@ -8119,30 +8277,34 @@
       </c>
       <c r="F40">
         <f t="shared" si="3"/>
-        <v>358.19117572141505</v>
+        <v>334.67976562971614</v>
       </c>
       <c r="G40">
         <f t="shared" si="4"/>
-        <v>196.38336800870968</v>
+        <v>268.74404778370763</v>
       </c>
       <c r="H40">
         <f t="shared" si="5"/>
+        <v>134.37202389185381</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="6"/>
         <v>-208</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="6"/>
+      <c r="J40">
+        <f t="shared" si="7"/>
         <v>-151</v>
       </c>
-      <c r="J40">
-        <f t="shared" si="7"/>
-        <v>358</v>
-      </c>
       <c r="K40">
         <f t="shared" si="8"/>
-        <v>388</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.15">
+        <v>334</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="9"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>37</v>
       </c>
@@ -8160,30 +8322,34 @@
       </c>
       <c r="F41">
         <f t="shared" si="3"/>
-        <v>341.03833392137585</v>
+        <v>314.27310966702152</v>
       </c>
       <c r="G41">
         <f t="shared" si="4"/>
-        <v>210.91235096081485</v>
+        <v>280.63814397991064</v>
       </c>
       <c r="H41">
         <f t="shared" si="5"/>
+        <v>140.31907198995532</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="6"/>
         <v>-191</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="6"/>
+      <c r="J41">
+        <f t="shared" si="7"/>
         <v>-172</v>
       </c>
-      <c r="J41">
-        <f t="shared" si="7"/>
-        <v>341</v>
-      </c>
       <c r="K41">
         <f t="shared" si="8"/>
-        <v>402</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.15">
+        <v>314</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="9"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B42">
         <v>38</v>
       </c>
@@ -8201,30 +8367,34 @@
       </c>
       <c r="F42">
         <f t="shared" si="3"/>
-        <v>322.46076492262335</v>
+        <v>292.73497190352759</v>
       </c>
       <c r="G42">
         <f t="shared" si="4"/>
-        <v>223.56878243008447</v>
+        <v>290.3340066844388</v>
       </c>
       <c r="H42">
         <f t="shared" si="5"/>
+        <v>145.1670033422194</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="6"/>
         <v>-172</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="6"/>
+      <c r="J42">
+        <f t="shared" si="7"/>
         <v>-191</v>
       </c>
-      <c r="J42">
-        <f t="shared" si="7"/>
-        <v>322</v>
-      </c>
       <c r="K42">
         <f t="shared" si="8"/>
-        <v>415</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="9"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>39</v>
       </c>
@@ -8242,30 +8412,34 @@
       </c>
       <c r="F43">
         <f t="shared" si="3"/>
-        <v>302.66200845871396</v>
+        <v>270.30132868371606</v>
       </c>
       <c r="G43">
         <f t="shared" si="4"/>
-        <v>234.21399590481283</v>
+        <v>297.72540599651177</v>
       </c>
       <c r="H43">
         <f t="shared" si="5"/>
+        <v>148.86270299825588</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="6"/>
         <v>-151</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="6"/>
+      <c r="J43">
+        <f t="shared" si="7"/>
         <v>-208</v>
       </c>
-      <c r="J43">
-        <f t="shared" si="7"/>
-        <v>302</v>
-      </c>
       <c r="K43">
         <f t="shared" si="8"/>
-        <v>426</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="9"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>40</v>
       </c>
@@ -8283,30 +8457,34 @@
       </c>
       <c r="F44">
         <f t="shared" si="3"/>
-        <v>281.85898384862259</v>
+        <v>247.21796769724506</v>
       </c>
       <c r="G44">
         <f t="shared" si="4"/>
-        <v>242.73136019851651</v>
+        <v>302.73136019851654</v>
       </c>
       <c r="H44">
         <f t="shared" si="5"/>
+        <v>151.36568009925827</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="6"/>
         <v>-128</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="6"/>
+      <c r="J44">
+        <f t="shared" si="7"/>
         <v>-222</v>
       </c>
-      <c r="J44">
-        <f t="shared" si="7"/>
-        <v>281</v>
-      </c>
       <c r="K44">
         <f t="shared" si="8"/>
-        <v>434</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="9"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B45">
         <v>41</v>
       </c>
@@ -8324,30 +8502,34 @@
       </c>
       <c r="F45">
         <f t="shared" si="3"/>
-        <v>260.27961338328976</v>
+        <v>223.73779507758573</v>
       </c>
       <c r="G45">
         <f t="shared" si="4"/>
-        <v>249.02755728562082</v>
+        <v>305.29702300865279</v>
       </c>
       <c r="H45">
         <f t="shared" si="5"/>
+        <v>152.64851150432639</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="6"/>
         <v>-105</v>
       </c>
-      <c r="I45">
-        <f t="shared" si="6"/>
+      <c r="J45">
+        <f t="shared" si="7"/>
         <v>-234</v>
       </c>
-      <c r="J45">
-        <f t="shared" si="7"/>
-        <v>260</v>
-      </c>
       <c r="K45">
         <f t="shared" si="8"/>
-        <v>441</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.15">
+        <v>223</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="9"/>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B46">
         <v>42</v>
       </c>
@@ -8365,30 +8547,34 @@
       </c>
       <c r="F46">
         <f t="shared" si="3"/>
-        <v>238.16032516130781</v>
+        <v>200.11806450950166</v>
       </c>
       <c r="G46">
         <f t="shared" si="4"/>
-        <v>253.03360471327528</v>
+        <v>305.39428448827317</v>
       </c>
       <c r="H46">
         <f t="shared" si="5"/>
+        <v>152.69714224413659</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="6"/>
         <v>-80</v>
       </c>
-      <c r="I46">
-        <f t="shared" si="6"/>
+      <c r="J46">
+        <f t="shared" si="7"/>
         <v>-244</v>
       </c>
-      <c r="J46">
-        <f t="shared" si="7"/>
-        <v>238</v>
-      </c>
       <c r="K46">
         <f t="shared" si="8"/>
-        <v>445</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="9"/>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B47">
         <v>43</v>
       </c>
@@ -8406,30 +8592,34 @@
       </c>
       <c r="F47">
         <f t="shared" si="3"/>
-        <v>215.74346273319509</v>
+        <v>176.61755870384286</v>
       </c>
       <c r="G47">
         <f t="shared" si="4"/>
-        <v>254.70561138754337</v>
+        <v>303.02207902025373</v>
       </c>
       <c r="H47">
         <f t="shared" si="5"/>
+        <v>151.51103951012686</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="6"/>
         <v>-54</v>
       </c>
-      <c r="I47">
-        <f t="shared" si="6"/>
+      <c r="J47">
+        <f t="shared" si="7"/>
         <v>-251</v>
       </c>
-      <c r="J47">
-        <f t="shared" si="7"/>
-        <v>215</v>
-      </c>
       <c r="K47">
         <f t="shared" si="8"/>
-        <v>446</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="9"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B48">
         <v>44</v>
       </c>
@@ -8447,30 +8637,34 @@
       </c>
       <c r="F48">
         <f t="shared" si="3"/>
-        <v>193.2746299347441</v>
+        <v>153.49375412001316</v>
       </c>
       <c r="G48">
         <f t="shared" si="4"/>
-        <v>254.02525845341182</v>
+        <v>298.20639698411799</v>
       </c>
       <c r="H48">
         <f t="shared" si="5"/>
+        <v>149.10319849205899</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="6"/>
         <v>-27</v>
       </c>
-      <c r="I48">
-        <f t="shared" si="6"/>
+      <c r="J48">
+        <f t="shared" si="7"/>
         <v>-255</v>
       </c>
-      <c r="J48">
-        <f t="shared" si="7"/>
-        <v>193</v>
-      </c>
       <c r="K48">
         <f t="shared" si="8"/>
-        <v>446</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.15">
+        <v>153</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="9"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B49">
         <v>45</v>
       </c>
@@ -8488,30 +8682,34 @@
       </c>
       <c r="F49">
         <f t="shared" si="3"/>
-        <v>171.00000000000003</v>
+        <v>131.00000000000003</v>
       </c>
       <c r="G49">
         <f t="shared" si="4"/>
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="H49">
         <f t="shared" si="5"/>
+        <v>145.5</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="I49">
-        <f t="shared" si="6"/>
+      <c r="J49">
+        <f t="shared" si="7"/>
         <v>-256</v>
       </c>
-      <c r="J49">
-        <f t="shared" si="7"/>
-        <v>171</v>
-      </c>
       <c r="K49">
         <f t="shared" si="8"/>
-        <v>443</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="9"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B50">
         <v>46</v>
       </c>
@@ -8529,30 +8727,34 @@
       </c>
       <c r="F50">
         <f t="shared" si="3"/>
-        <v>149.16361843579409</v>
+        <v>109.38274262106316</v>
       </c>
       <c r="G50">
         <f t="shared" si="4"/>
-        <v>245.66298139199949</v>
+        <v>281.48184286129333</v>
       </c>
       <c r="H50">
         <f t="shared" si="5"/>
+        <v>140.74092143064667</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="I50">
-        <f t="shared" si="6"/>
+      <c r="J50">
+        <f t="shared" si="7"/>
         <v>-255</v>
       </c>
-      <c r="J50">
-        <f t="shared" si="7"/>
-        <v>149</v>
-      </c>
       <c r="K50">
         <f t="shared" si="8"/>
-        <v>437</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="9"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B51">
         <v>47</v>
       </c>
@@ -8570,30 +8772,34 @@
       </c>
       <c r="F51">
         <f t="shared" si="3"/>
-        <v>128.00472920810054</v>
+        <v>88.878825178748329</v>
       </c>
       <c r="G51">
         <f t="shared" si="4"/>
-        <v>238.0726761221226</v>
+        <v>269.75620848941219</v>
       </c>
       <c r="H51">
         <f t="shared" si="5"/>
+        <v>134.87810424470609</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="6"/>
+      <c r="J51">
+        <f t="shared" si="7"/>
         <v>-251</v>
       </c>
-      <c r="J51">
-        <f t="shared" si="7"/>
-        <v>128</v>
-      </c>
       <c r="K51">
         <f t="shared" si="8"/>
-        <v>430</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="9"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B52">
         <v>48</v>
       </c>
@@ -8611,30 +8817,34 @@
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
-        <v>107.75515353507998</v>
+        <v>69.712892883273838</v>
       </c>
       <c r="G52">
         <f t="shared" si="4"/>
-        <v>228.31224516327953</v>
+        <v>255.95156538828167</v>
       </c>
       <c r="H52">
         <f t="shared" si="5"/>
+        <v>127.97578269414083</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="6"/>
         <v>79</v>
       </c>
-      <c r="I52">
-        <f t="shared" si="6"/>
+      <c r="J52">
+        <f t="shared" si="7"/>
         <v>-244</v>
       </c>
-      <c r="J52">
-        <f t="shared" si="7"/>
-        <v>107</v>
-      </c>
       <c r="K52">
         <f t="shared" si="8"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="9"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B53">
         <v>49</v>
       </c>
@@ -8652,30 +8862,34 @@
       </c>
       <c r="F53">
         <f t="shared" si="3"/>
-        <v>88.636750005302204</v>
+        <v>52.094931699598163</v>
       </c>
       <c r="G53">
         <f t="shared" si="4"/>
-        <v>216.48862583955682</v>
+        <v>240.21916011652479</v>
       </c>
       <c r="H53">
         <f t="shared" si="5"/>
+        <v>120.1095800582624</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="6"/>
         <v>104</v>
       </c>
-      <c r="I53">
-        <f t="shared" si="6"/>
+      <c r="J53">
+        <f t="shared" si="7"/>
         <v>-234</v>
       </c>
-      <c r="J53">
-        <f t="shared" si="7"/>
-        <v>88</v>
-      </c>
       <c r="K53">
         <f t="shared" si="8"/>
-        <v>408</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="9"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B54">
         <v>50</v>
       </c>
@@ -8693,30 +8907,34 @@
       </c>
       <c r="F54">
         <f t="shared" si="3"/>
-        <v>70.858983848622429</v>
+        <v>36.217967697244887</v>
       </c>
       <c r="G54">
         <f t="shared" si="4"/>
-        <v>202.73136019851654</v>
+        <v>222.73136019851654</v>
       </c>
       <c r="H54">
         <f t="shared" si="5"/>
+        <v>111.36568009925827</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="6"/>
         <v>128</v>
       </c>
-      <c r="I54">
-        <f t="shared" si="6"/>
+      <c r="J54">
+        <f t="shared" si="7"/>
         <v>-222</v>
       </c>
-      <c r="J54">
-        <f t="shared" si="7"/>
-        <v>70</v>
-      </c>
       <c r="K54">
         <f t="shared" si="8"/>
-        <v>394</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="9"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B55">
         <v>51</v>
       </c>
@@ -8734,30 +8952,34 @@
       </c>
       <c r="F55">
         <f t="shared" si="3"/>
-        <v>54.616631991290305</v>
+        <v>22.2559522162924</v>
       </c>
       <c r="G55">
         <f t="shared" si="4"/>
-        <v>187.19117572141502</v>
+        <v>203.67976562971609</v>
       </c>
       <c r="H55">
         <f t="shared" si="5"/>
+        <v>101.83988281485804</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="I55">
-        <f t="shared" si="6"/>
+      <c r="J55">
+        <f t="shared" si="7"/>
         <v>-208</v>
       </c>
-      <c r="J55">
-        <f t="shared" si="7"/>
-        <v>54</v>
-      </c>
       <c r="K55">
         <f t="shared" si="8"/>
-        <v>379</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="9"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B56">
         <v>52</v>
       </c>
@@ -8775,30 +8997,34 @@
       </c>
       <c r="F56">
         <f t="shared" si="3"/>
-        <v>40.087649039185095</v>
+        <v>10.361856020089334</v>
       </c>
       <c r="G56">
         <f t="shared" si="4"/>
-        <v>170.03833392137579</v>
+        <v>183.27310966702146</v>
       </c>
       <c r="H56">
         <f t="shared" si="5"/>
+        <v>91.636554833510729</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="6"/>
         <v>171</v>
       </c>
-      <c r="I56">
-        <f t="shared" si="6"/>
+      <c r="J56">
+        <f t="shared" si="7"/>
         <v>-191</v>
       </c>
-      <c r="J56">
-        <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
       <c r="K56">
         <f t="shared" si="8"/>
-        <v>362</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="9"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B57">
         <v>53</v>
       </c>
@@ -8816,30 +9042,34 @@
       </c>
       <c r="F57">
         <f t="shared" si="3"/>
-        <v>27.431217569915574</v>
+        <v>0.66599331556122365</v>
       </c>
       <c r="G57">
         <f t="shared" si="4"/>
-        <v>151.46076492262347</v>
+        <v>161.73497190352771</v>
       </c>
       <c r="H57">
         <f t="shared" si="5"/>
+        <v>80.867485951763854</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
-      <c r="I57">
-        <f t="shared" si="6"/>
+      <c r="J57">
+        <f t="shared" si="7"/>
         <v>-172</v>
       </c>
-      <c r="J57">
-        <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
       <c r="K57">
         <f t="shared" si="8"/>
-        <v>343</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="9"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B58">
         <v>54</v>
       </c>
@@ -8857,30 +9087,34 @@
       </c>
       <c r="F58">
         <f t="shared" si="3"/>
-        <v>16.786004095187167</v>
+        <v>-6.7254059965117676</v>
       </c>
       <c r="G58">
         <f t="shared" si="4"/>
-        <v>131.66200845871398</v>
+        <v>139.30132868371609</v>
       </c>
       <c r="H58">
         <f t="shared" si="5"/>
+        <v>69.650664341858047</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="6"/>
         <v>207</v>
       </c>
-      <c r="I58">
-        <f t="shared" si="6"/>
+      <c r="J58">
+        <f t="shared" si="7"/>
         <v>-151</v>
       </c>
-      <c r="J58">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
       <c r="K58">
         <f t="shared" si="8"/>
-        <v>323</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.15">
+        <v>-7</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="9"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B59">
         <v>55</v>
       </c>
@@ -8898,30 +9132,34 @@
       </c>
       <c r="F59">
         <f t="shared" si="3"/>
-        <v>8.2686398014834985</v>
+        <v>-11.731360198516519</v>
       </c>
       <c r="G59">
         <f t="shared" si="4"/>
-        <v>110.85898384862259</v>
+        <v>116.21796769724504</v>
       </c>
       <c r="H59">
         <f t="shared" si="5"/>
+        <v>58.108983848622522</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="6"/>
         <v>221</v>
       </c>
-      <c r="I59">
-        <f t="shared" si="6"/>
+      <c r="J59">
+        <f t="shared" si="7"/>
         <v>-128</v>
       </c>
-      <c r="J59">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
       <c r="K59">
         <f t="shared" si="8"/>
-        <v>302</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.15">
+        <v>-12</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="9"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B60">
         <v>56</v>
       </c>
@@ -8939,30 +9177,34 @@
       </c>
       <c r="F60">
         <f t="shared" si="3"/>
-        <v>1.9724427143791772</v>
+        <v>-14.297023008652829</v>
       </c>
       <c r="G60">
         <f t="shared" si="4"/>
-        <v>89.279613383289785</v>
+        <v>92.73779507758573</v>
       </c>
       <c r="H60">
         <f t="shared" si="5"/>
+        <v>46.368897538792865</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="6"/>
         <v>233</v>
       </c>
-      <c r="I60">
-        <f t="shared" si="6"/>
+      <c r="J60">
+        <f t="shared" si="7"/>
         <v>-105</v>
       </c>
-      <c r="J60">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
       <c r="K60">
         <f t="shared" si="8"/>
-        <v>281</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.15">
+        <v>-15</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="9"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B61">
         <v>57</v>
       </c>
@@ -8980,30 +9222,34 @@
       </c>
       <c r="F61">
         <f t="shared" si="3"/>
-        <v>-2.0336047132752952</v>
+        <v>-14.3942844882732</v>
       </c>
       <c r="G61">
         <f t="shared" si="4"/>
-        <v>67.16032516130781</v>
+        <v>69.118064509501679</v>
       </c>
       <c r="H61">
         <f t="shared" si="5"/>
+        <v>34.559032254750839</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="6"/>
         <v>243</v>
       </c>
-      <c r="I61">
-        <f t="shared" si="6"/>
+      <c r="J61">
+        <f t="shared" si="7"/>
         <v>-80</v>
       </c>
-      <c r="J61">
-        <f t="shared" si="7"/>
-        <v>-3</v>
-      </c>
       <c r="K61">
         <f t="shared" si="8"/>
-        <v>259</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.15">
+        <v>-15</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="9"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B62">
         <v>58</v>
       </c>
@@ -9021,30 +9267,34 @@
       </c>
       <c r="F62">
         <f t="shared" si="3"/>
-        <v>-3.7056113875433816</v>
+        <v>-12.022079020253777</v>
       </c>
       <c r="G62">
         <f t="shared" si="4"/>
-        <v>44.743462733195109</v>
+        <v>45.617558703842889</v>
       </c>
       <c r="H62">
         <f t="shared" si="5"/>
+        <v>22.808779351921444</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
-      <c r="I62">
-        <f t="shared" si="6"/>
+      <c r="J62">
+        <f t="shared" si="7"/>
         <v>-54</v>
       </c>
-      <c r="J62">
-        <f t="shared" si="7"/>
-        <v>-4</v>
-      </c>
       <c r="K62">
         <f t="shared" si="8"/>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.15">
+        <v>-13</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="9"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B63">
         <v>59</v>
       </c>
@@ -9062,30 +9312,34 @@
       </c>
       <c r="F63">
         <f t="shared" si="3"/>
-        <v>-3.0252584534118308</v>
+        <v>-7.2063969841180029</v>
       </c>
       <c r="G63">
         <f t="shared" si="4"/>
-        <v>22.274629934744127</v>
+        <v>22.493754120013193</v>
       </c>
       <c r="H63">
         <f t="shared" si="5"/>
+        <v>11.246877060006597</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="6"/>
         <v>254</v>
       </c>
-      <c r="I63">
-        <f t="shared" si="6"/>
+      <c r="J63">
+        <f t="shared" si="7"/>
         <v>-27</v>
       </c>
-      <c r="J63">
-        <f t="shared" si="7"/>
-        <v>-4</v>
-      </c>
       <c r="K63">
         <f t="shared" si="8"/>
-        <v>214</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.15">
+        <v>-8</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="9"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B64">
         <v>60</v>
       </c>
@@ -9103,7 +9357,7 @@
       </c>
       <c r="F64">
         <f t="shared" si="3"/>
-        <v>-9.8011876392689601E-15</v>
+        <v>-1.960237527853792E-14</v>
       </c>
       <c r="G64">
         <f t="shared" si="4"/>
@@ -9111,18 +9365,22 @@
       </c>
       <c r="H64">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="6"/>
         <v>256</v>
       </c>
-      <c r="I64">
-        <f t="shared" si="6"/>
+      <c r="J64">
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="J64">
-        <f t="shared" si="7"/>
+      <c r="K64">
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
-      <c r="K64">
-        <f t="shared" si="8"/>
+      <c r="L64">
+        <f t="shared" si="9"/>
         <v>192</v>
       </c>
     </row>

--- a/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/start_logo3/logo3.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_rev2_step1/src/th9958/start_logo3/logo3.xlsx
@@ -21852,8 +21852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y70" sqref="Y70"/>
+    <sheetView tabSelected="1" topLeftCell="F40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4:X64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22010,11 +22010,11 @@
         <v>192</v>
       </c>
       <c r="Q4">
-        <f>M4-F4*256/O4+F4*L4</f>
+        <f>M4-F4*(256-L4)/O4</f>
         <v>-597.33333333333337</v>
       </c>
       <c r="R4">
-        <f>N4-G4*256/O4-G4*L4</f>
+        <f>N4-G4*(256-L4)/O4</f>
         <v>80.000000000000085</v>
       </c>
       <c r="S4">
@@ -22100,20 +22100,20 @@
         <v>192</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q64" si="11">M5-F5*256/O5+F5*L5</f>
-        <v>-559.17048927722715</v>
+        <f t="shared" ref="Q5:Q64" si="11">M5-F5*(256-L5)/O5</f>
+        <v>-547.29143237047219</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R64" si="12">N5-G5*256/O5-G5*L5</f>
-        <v>42.591180844489216</v>
+        <f t="shared" ref="R5:R64" si="12">N5-G5*(256-L5)/O5</f>
+        <v>43.616451579778023</v>
       </c>
       <c r="S5">
         <f t="shared" ref="S5:S64" si="13">Q5+G5*144/O5-G5*J5</f>
-        <v>-538.70755091168496</v>
+        <v>-526.82849400493001</v>
       </c>
       <c r="T5">
         <f t="shared" ref="T5:T64" si="14">R5-F5*144/O5+F5*J5</f>
-        <v>-409.19826201889691</v>
+        <v>-408.1729912836081</v>
       </c>
       <c r="U5">
         <f t="shared" ref="U5:U64" si="15">INT(F5*256/O5)</f>
@@ -22125,7 +22125,7 @@
       </c>
       <c r="W5">
         <f t="shared" ref="W5:W64" si="17">INT(S5)</f>
-        <v>-539</v>
+        <v>-527</v>
       </c>
       <c r="X5">
         <f t="shared" ref="X5:X64" si="18">INT(T5/2)+P5</f>
@@ -22191,19 +22191,19 @@
       </c>
       <c r="Q6">
         <f t="shared" si="11"/>
-        <v>-521.98159729332781</v>
+        <v>-499.87233481080352</v>
       </c>
       <c r="R6">
         <f t="shared" si="12"/>
-        <v>7.8623446932389029</v>
+        <v>11.765571881746837</v>
       </c>
       <c r="S6">
         <f t="shared" si="13"/>
-        <v>-483.64082916379618</v>
+        <v>-461.5315666812719</v>
       </c>
       <c r="T6">
         <f t="shared" si="14"/>
-        <v>-416.86058072329507</v>
+        <v>-412.95735353478716</v>
       </c>
       <c r="U6">
         <f t="shared" si="15"/>
@@ -22215,11 +22215,11 @@
       </c>
       <c r="W6">
         <f t="shared" si="17"/>
-        <v>-484</v>
+        <v>-462</v>
       </c>
       <c r="X6">
         <f t="shared" si="18"/>
-        <v>-17</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.15">
@@ -22281,19 +22281,19 @@
       </c>
       <c r="Q7">
         <f t="shared" si="11"/>
-        <v>-485.88384411750093</v>
+        <v>-455.18609546294658</v>
       </c>
       <c r="R7">
         <f t="shared" si="12"/>
-        <v>-24.030319319717329</v>
+        <v>-15.734639257786057</v>
       </c>
       <c r="S7">
         <f t="shared" si="13"/>
-        <v>-432.15381371880568</v>
+        <v>-401.45606506425133</v>
       </c>
       <c r="T7">
         <f t="shared" si="14"/>
-        <v>-423.1758200977518</v>
+        <v>-414.88014003582055</v>
       </c>
       <c r="U7">
         <f t="shared" si="15"/>
@@ -22305,11 +22305,11 @@
       </c>
       <c r="W7">
         <f t="shared" si="17"/>
-        <v>-433</v>
+        <v>-402</v>
       </c>
       <c r="X7">
         <f t="shared" si="18"/>
-        <v>-20</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.15">
@@ -22371,19 +22371,19 @@
       </c>
       <c r="Q8">
         <f t="shared" si="11"/>
-        <v>-451.03954396551671</v>
+        <v>-413.35025527186986</v>
       </c>
       <c r="R8">
         <f t="shared" si="12"/>
-        <v>-52.947113641094653</v>
+        <v>-39.121627252852235</v>
       </c>
       <c r="S8">
         <f t="shared" si="13"/>
-        <v>-384.23451259111107</v>
+        <v>-346.54522389746421</v>
       </c>
       <c r="T8">
         <f t="shared" si="14"/>
-        <v>-428.32785545204922</v>
+        <v>-414.50236906380684</v>
       </c>
       <c r="U8">
         <f t="shared" si="15"/>
@@ -22395,11 +22395,11 @@
       </c>
       <c r="W8">
         <f t="shared" si="17"/>
-        <v>-385</v>
+        <v>-347</v>
       </c>
       <c r="X8">
         <f t="shared" si="18"/>
-        <v>-23</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.15">
@@ -22461,19 +22461,19 @@
       </c>
       <c r="Q9">
         <f t="shared" si="11"/>
-        <v>-417.63511641935526</v>
+        <v>-374.4710526336861</v>
       </c>
       <c r="R9">
         <f t="shared" si="12"/>
-        <v>-78.772489434546728</v>
+        <v>-58.674578868392075</v>
       </c>
       <c r="S9">
         <f t="shared" si="13"/>
-        <v>-339.83467993921056</v>
+        <v>-296.67061615354135</v>
       </c>
       <c r="T9">
         <f t="shared" si="14"/>
-        <v>-432.48492529165094</v>
+        <v>-412.38701472549627</v>
       </c>
       <c r="U9">
         <f t="shared" si="15"/>
@@ -22485,11 +22485,11 @@
       </c>
       <c r="W9">
         <f t="shared" si="17"/>
-        <v>-340</v>
+        <v>-297</v>
       </c>
       <c r="X9">
         <f t="shared" si="18"/>
-        <v>-25</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.15">
@@ -22551,19 +22551,19 @@
       </c>
       <c r="Q10">
         <f t="shared" si="11"/>
-        <v>-385.86266696109408</v>
+        <v>-338.63023583518759</v>
       </c>
       <c r="R10">
         <f t="shared" si="12"/>
-        <v>-101.42091859410708</v>
+        <v>-74.699356828960674</v>
       </c>
       <c r="S10">
         <f t="shared" si="13"/>
-        <v>-298.87230184287591</v>
+        <v>-251.63987071696943</v>
       </c>
       <c r="T10">
         <f t="shared" si="14"/>
-        <v>-435.79271163799064</v>
+        <v>-409.07114987284422</v>
       </c>
       <c r="U10">
         <f t="shared" si="15"/>
@@ -22575,11 +22575,11 @@
       </c>
       <c r="W10">
         <f t="shared" si="17"/>
-        <v>-299</v>
+        <v>-252</v>
       </c>
       <c r="X10">
         <f t="shared" si="18"/>
-        <v>-26</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.15">
@@ -22641,19 +22641,19 @@
       </c>
       <c r="Q11">
         <f t="shared" si="11"/>
-        <v>-355.90466280499493</v>
+        <v>-305.87709971947959</v>
       </c>
       <c r="R11">
         <f t="shared" si="12"/>
-        <v>-120.84064880356472</v>
+        <v>-87.513481476394276</v>
       </c>
       <c r="S11">
         <f t="shared" si="13"/>
-        <v>-261.23873979965299</v>
+        <v>-211.21117671413768</v>
       </c>
       <c r="T11">
         <f t="shared" si="14"/>
-        <v>-438.37099795343067</v>
+        <v>-405.04383062626027</v>
       </c>
       <c r="U11">
         <f t="shared" si="15"/>
@@ -22665,11 +22665,11 @@
       </c>
       <c r="W11">
         <f t="shared" si="17"/>
-        <v>-262</v>
+        <v>-212</v>
       </c>
       <c r="X11">
         <f t="shared" si="18"/>
-        <v>-28</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.15">
@@ -22731,19 +22731,19 @@
       </c>
       <c r="Q12">
         <f t="shared" si="11"/>
-        <v>-327.92195318569009</v>
+        <v>-276.22500131440859</v>
       </c>
       <c r="R12">
         <f t="shared" si="12"/>
-        <v>-137.01521545394866</v>
+        <v>-97.432340034366348</v>
       </c>
       <c r="S12">
         <f t="shared" si="13"/>
-        <v>-226.80889204383206</v>
+        <v>-175.11194017255056</v>
       </c>
       <c r="T12">
         <f t="shared" si="14"/>
-        <v>-440.31335765680751</v>
+        <v>-400.7304822372252</v>
       </c>
       <c r="U12">
         <f t="shared" si="15"/>
@@ -22755,11 +22755,11 @@
       </c>
       <c r="W12">
         <f t="shared" si="17"/>
-        <v>-227</v>
+        <v>-176</v>
       </c>
       <c r="X12">
         <f t="shared" si="18"/>
-        <v>-29</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.15">
@@ -22821,19 +22821,19 @@
       </c>
       <c r="Q13">
         <f t="shared" si="11"/>
-        <v>-302.04512878796515</v>
+        <v>-249.65137050499806</v>
       </c>
       <c r="R13">
         <f t="shared" si="12"/>
-        <v>-149.96281330951331</v>
+        <v>-104.75747361901966</v>
       </c>
       <c r="S13">
         <f t="shared" si="13"/>
-        <v>-195.45271189649378</v>
+        <v>-143.05895361352671</v>
       </c>
       <c r="T13">
         <f t="shared" si="14"/>
-        <v>-441.68904570947865</v>
+        <v>-396.483706018985</v>
       </c>
       <c r="U13">
         <f t="shared" si="15"/>
@@ -22845,11 +22845,11 @@
       </c>
       <c r="W13">
         <f t="shared" si="17"/>
-        <v>-196</v>
+        <v>-144</v>
       </c>
       <c r="X13">
         <f t="shared" si="18"/>
-        <v>-29</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.15">
@@ -22911,19 +22911,19 @@
       </c>
       <c r="Q14">
         <f t="shared" si="11"/>
-        <v>-278.36899040946292</v>
+        <v>-226.10014091861467</v>
       </c>
       <c r="R14">
         <f t="shared" si="12"/>
-        <v>-159.73384776522101</v>
+        <v>-109.76742772305923</v>
       </c>
       <c r="S14">
         <f t="shared" si="13"/>
-        <v>-167.04655973591025</v>
+        <v>-114.777710245062</v>
       </c>
       <c r="T14">
         <f t="shared" si="14"/>
-        <v>-442.54613098510379</v>
+        <v>-392.57971094294203</v>
       </c>
       <c r="U14">
         <f t="shared" si="15"/>
@@ -22935,11 +22935,11 @@
       </c>
       <c r="W14">
         <f t="shared" si="17"/>
-        <v>-168</v>
+        <v>-115</v>
       </c>
       <c r="X14">
         <f t="shared" si="18"/>
-        <v>-30</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.15">
@@ -23001,19 +23001,19 @@
       </c>
       <c r="Q15">
         <f t="shared" si="11"/>
-        <v>-256.94972928514699</v>
+        <v>-205.48557077051009</v>
       </c>
       <c r="R15">
         <f t="shared" si="12"/>
-        <v>-166.40715802751859</v>
+        <v>-112.71131489287185</v>
       </c>
       <c r="S15">
         <f t="shared" si="13"/>
-        <v>-141.48311905105081</v>
+        <v>-90.0189605364139</v>
       </c>
       <c r="T15">
         <f t="shared" si="14"/>
-        <v>-442.91492073174629</v>
+        <v>-389.21907759709961</v>
       </c>
       <c r="U15">
         <f t="shared" si="15"/>
@@ -23025,11 +23025,11 @@
       </c>
       <c r="W15">
         <f t="shared" si="17"/>
-        <v>-142</v>
+        <v>-91</v>
       </c>
       <c r="X15">
         <f t="shared" si="18"/>
-        <v>-30</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.15">
@@ -23091,19 +23091,19 @@
       </c>
       <c r="Q16">
         <f t="shared" si="11"/>
-        <v>-237.80432269043436</v>
+        <v>-187.69657042094036</v>
       </c>
       <c r="R16">
         <f t="shared" si="12"/>
-        <v>-170.08550907613289</v>
+        <v>-113.80497237791187</v>
       </c>
       <c r="S16">
         <f t="shared" si="13"/>
-        <v>-118.6789233858667</v>
+        <v>-68.571171116372696</v>
       </c>
       <c r="T16">
         <f t="shared" si="14"/>
-        <v>-442.81087041720099</v>
+        <v>-386.53033371897999</v>
       </c>
       <c r="U16">
         <f t="shared" si="15"/>
@@ -23115,11 +23115,11 @@
       </c>
       <c r="W16">
         <f t="shared" si="17"/>
-        <v>-119</v>
+        <v>-69</v>
       </c>
       <c r="X16">
         <f t="shared" si="18"/>
-        <v>-30</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.15">
@@ -23181,19 +23181,19 @@
       </c>
       <c r="Q17">
         <f t="shared" si="11"/>
-        <v>-220.91161708587816</v>
+        <v>-172.60086071342198</v>
       </c>
       <c r="R17">
         <f t="shared" si="12"/>
-        <v>-170.89097434219124</v>
+        <v>-113.22942405530355</v>
       </c>
       <c r="S17">
         <f t="shared" si="13"/>
-        <v>-98.578867345283513</v>
+        <v>-50.26811097282733</v>
       </c>
       <c r="T17">
         <f t="shared" si="14"/>
-        <v>-442.23640782675284</v>
+        <v>-384.57485753986509</v>
       </c>
       <c r="U17">
         <f t="shared" si="15"/>
@@ -23205,11 +23205,11 @@
       </c>
       <c r="W17">
         <f t="shared" si="17"/>
-        <v>-99</v>
+        <v>-51</v>
       </c>
       <c r="X17">
         <f t="shared" si="18"/>
-        <v>-30</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.15">
@@ -23271,19 +23271,19 @@
       </c>
       <c r="Q18">
         <f t="shared" si="11"/>
-        <v>-206.214596347374</v>
+        <v>-160.04851339183125</v>
       </c>
       <c r="R18">
         <f t="shared" si="12"/>
-        <v>-168.96077758318731</v>
+        <v>-111.13127526318897</v>
       </c>
       <c r="S18">
         <f t="shared" si="13"/>
-        <v>-81.157371566110982</v>
+        <v>-34.991288610568226</v>
       </c>
       <c r="T18">
         <f t="shared" si="14"/>
-        <v>-441.18138819496232</v>
+        <v>-383.35188587496401</v>
       </c>
       <c r="U18">
         <f t="shared" si="15"/>
@@ -23295,11 +23295,11 @@
       </c>
       <c r="W18">
         <f t="shared" si="17"/>
-        <v>-82</v>
+        <v>-35</v>
       </c>
       <c r="X18">
         <f t="shared" si="18"/>
-        <v>-29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.15">
@@ -23361,19 +23361,19 @@
       </c>
       <c r="Q19">
         <f t="shared" si="11"/>
-        <v>-193.62339886211581</v>
+        <v>-149.87464073995716</v>
       </c>
       <c r="R19">
         <f t="shared" si="12"/>
-        <v>-164.44404185093185</v>
+        <v>-107.62466575391818</v>
       </c>
       <c r="S19">
         <f t="shared" si="13"/>
-        <v>-66.416118236845165</v>
+        <v>-22.667360114686524</v>
       </c>
       <c r="T19">
         <f t="shared" si="14"/>
-        <v>-439.62219668375627</v>
+        <v>-382.8028205867426</v>
       </c>
       <c r="U19">
         <f t="shared" si="15"/>
@@ -23385,11 +23385,11 @@
       </c>
       <c r="W19">
         <f t="shared" si="17"/>
-        <v>-67</v>
+        <v>-23</v>
       </c>
       <c r="X19">
         <f t="shared" si="18"/>
-        <v>-28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.15">
@@ -23451,19 +23451,19 @@
       </c>
       <c r="Q20">
         <f t="shared" si="11"/>
-        <v>-183.01873799759105</v>
+        <v>-141.90118704270094</v>
       </c>
       <c r="R20">
         <f t="shared" si="12"/>
-        <v>-157.49972439726409</v>
+        <v>-102.79445511822689</v>
       </c>
       <c r="S20">
         <f t="shared" si="13"/>
-        <v>-64.618319378708293</v>
+        <v>-23.50076842381818</v>
       </c>
       <c r="T20">
         <f t="shared" si="14"/>
-        <v>-415.23000994851617</v>
+        <v>-360.524740669479</v>
       </c>
       <c r="U20">
         <f t="shared" si="15"/>
@@ -23475,11 +23475,11 @@
       </c>
       <c r="W20">
         <f t="shared" si="17"/>
-        <v>-65</v>
+        <v>-24</v>
       </c>
       <c r="X20">
         <f t="shared" si="18"/>
-        <v>-16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.15">
@@ -23541,19 +23541,19 @@
       </c>
       <c r="Q21">
         <f t="shared" si="11"/>
-        <v>-174.2554812411002</v>
+        <v>-135.9379221301503</v>
       </c>
       <c r="R21">
         <f t="shared" si="12"/>
-        <v>-148.29582129706702</v>
+        <v>-96.700389337948195</v>
       </c>
       <c r="S21">
         <f t="shared" si="13"/>
-        <v>-65.902560387603998</v>
+        <v>-27.58500127665409</v>
       </c>
       <c r="T21">
         <f t="shared" si="14"/>
-        <v>-388.6326921730589</v>
+        <v>-337.03726021394004</v>
       </c>
       <c r="U21">
         <f t="shared" si="15"/>
@@ -23565,11 +23565,11 @@
       </c>
       <c r="W21">
         <f t="shared" si="17"/>
-        <v>-66</v>
+        <v>-28</v>
       </c>
       <c r="X21">
         <f t="shared" si="18"/>
-        <v>-3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.15">
@@ -23631,19 +23631,19 @@
       </c>
       <c r="Q22">
         <f t="shared" si="11"/>
-        <v>-167.16624309167855</v>
+        <v>-131.78284802093856</v>
       </c>
       <c r="R22">
         <f t="shared" si="12"/>
-        <v>-137.00972780921171</v>
+        <v>-89.382071351207969</v>
       </c>
       <c r="S22">
         <f t="shared" si="13"/>
-        <v>-69.73199541495643</v>
+        <v>-34.348600344216443</v>
       </c>
       <c r="T22">
         <f t="shared" si="14"/>
-        <v>-360.07542630639421</v>
+        <v>-312.44776984839046</v>
       </c>
       <c r="U22">
         <f t="shared" si="15"/>
@@ -23655,11 +23655,11 @@
       </c>
       <c r="W22">
         <f t="shared" si="17"/>
-        <v>-70</v>
+        <v>-35</v>
       </c>
       <c r="X22">
         <f t="shared" si="18"/>
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.15">
@@ -23721,19 +23721,19 @@
       </c>
       <c r="Q23">
         <f t="shared" si="11"/>
-        <v>-161.5649378472188</v>
+        <v>-129.22230826198432</v>
       </c>
       <c r="R23">
         <f t="shared" si="12"/>
-        <v>-123.82946217106276</v>
+        <v>-80.864612575614103</v>
       </c>
       <c r="S23">
         <f t="shared" si="13"/>
-        <v>-75.545238221154349</v>
+        <v>-43.202608635919873</v>
       </c>
       <c r="T23">
         <f t="shared" si="14"/>
-        <v>-329.8207408954575</v>
+        <v>-286.85589130000881</v>
       </c>
       <c r="U23">
         <f t="shared" si="15"/>
@@ -23745,11 +23745,11 @@
       </c>
       <c r="W23">
         <f t="shared" si="17"/>
-        <v>-76</v>
+        <v>-44</v>
       </c>
       <c r="X23">
         <f t="shared" si="18"/>
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.15">
@@ -23811,19 +23811,19 @@
       </c>
       <c r="Q24">
         <f t="shared" si="11"/>
-        <v>-157.25031549869882</v>
+        <v>-128.03114035688827</v>
       </c>
       <c r="R24">
         <f t="shared" si="12"/>
-        <v>-108.95532123266544</v>
+        <v>-71.164862827498041</v>
       </c>
       <c r="S24">
         <f t="shared" si="13"/>
-        <v>-82.774901251202451</v>
+        <v>-53.555726109391898</v>
       </c>
       <c r="T24">
         <f t="shared" si="14"/>
-        <v>-298.15853768816942</v>
+        <v>-260.36807928300198</v>
       </c>
       <c r="U24">
         <f t="shared" si="15"/>
@@ -23835,11 +23835,11 @@
       </c>
       <c r="W24">
         <f t="shared" si="17"/>
-        <v>-83</v>
+        <v>-54</v>
       </c>
       <c r="X24">
         <f t="shared" si="18"/>
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.15">
@@ -23901,19 +23901,19 @@
       </c>
       <c r="Q25">
         <f t="shared" si="11"/>
-        <v>-154.00956295470641</v>
+        <v>-127.97323582760185</v>
       </c>
       <c r="R25">
         <f t="shared" si="12"/>
-        <v>-92.601452134310421</v>
+        <v>-60.29809692392908</v>
       </c>
       <c r="S25">
         <f t="shared" si="13"/>
-        <v>-90.866277721287858</v>
+        <v>-64.829950594183302</v>
       </c>
       <c r="T25">
         <f t="shared" si="14"/>
-        <v>-265.4144273880446</v>
+        <v>-233.11107217766329</v>
       </c>
       <c r="U25">
         <f t="shared" si="15"/>
@@ -23925,11 +23925,11 @@
       </c>
       <c r="W25">
         <f t="shared" si="17"/>
-        <v>-91</v>
+        <v>-65</v>
       </c>
       <c r="X25">
         <f t="shared" si="18"/>
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.15">
@@ -23991,19 +23991,19 @@
       </c>
       <c r="Q26">
         <f t="shared" si="11"/>
-        <v>-151.62208986168699</v>
+        <v>-128.80286684421077</v>
       </c>
       <c r="R26">
         <f t="shared" si="12"/>
-        <v>-74.996806465097848</v>
+        <v>-48.284978998510354</v>
       </c>
       <c r="S26">
         <f t="shared" si="13"/>
-        <v>-99.295696157201888</v>
+        <v>-76.47647313972567</v>
       </c>
       <c r="T26">
         <f t="shared" si="14"/>
-        <v>-231.95474858970573</v>
+        <v>-205.24292112311821</v>
       </c>
       <c r="U26">
         <f t="shared" si="15"/>
@@ -24015,11 +24015,11 @@
       </c>
       <c r="W26">
         <f t="shared" si="17"/>
-        <v>-100</v>
+        <v>-77</v>
       </c>
       <c r="X26">
         <f t="shared" si="18"/>
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.15">
@@ -24081,19 +24081,19 @@
       </c>
       <c r="Q27">
         <f t="shared" si="11"/>
-        <v>-149.86362919842901</v>
+        <v>-130.26709664280924</v>
       </c>
       <c r="R27">
         <f t="shared" si="12"/>
-        <v>-56.384997164684599</v>
+        <v>-35.15853942209101</v>
       </c>
       <c r="S27">
         <f t="shared" si="13"/>
-        <v>-107.58793288840056</v>
+        <v>-87.991400332780785</v>
       </c>
       <c r="T27">
         <f t="shared" si="14"/>
-        <v>-198.18699078301682</v>
+        <v>-176.96053304042323</v>
       </c>
       <c r="U27">
         <f t="shared" si="15"/>
@@ -24105,11 +24105,11 @@
       </c>
       <c r="W27">
         <f t="shared" si="17"/>
-        <v>-108</v>
+        <v>-88</v>
       </c>
       <c r="X27">
         <f t="shared" si="18"/>
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.15">
@@ -24171,19 +24171,19 @@
       </c>
       <c r="Q28">
         <f t="shared" si="11"/>
-        <v>-148.51076369646253</v>
+        <v>-132.10950639348937</v>
       </c>
       <c r="R28">
         <f t="shared" si="12"/>
-        <v>-37.022701139075878</v>
+        <v>-20.970800675732065</v>
       </c>
       <c r="S28">
         <f t="shared" si="13"/>
-        <v>-115.33192123871919</v>
+        <v>-98.930663935746026</v>
       </c>
       <c r="T28">
         <f t="shared" si="14"/>
-        <v>-164.55485977112147</v>
+        <v>-148.5029593077777</v>
       </c>
       <c r="U28">
         <f t="shared" si="15"/>
@@ -24195,11 +24195,11 @@
       </c>
       <c r="W28">
         <f t="shared" si="17"/>
-        <v>-116</v>
+        <v>-99</v>
       </c>
       <c r="X28">
         <f t="shared" si="18"/>
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.15">
@@ -24261,19 +24261,19 @@
       </c>
       <c r="Q29">
         <f t="shared" si="11"/>
-        <v>-147.34593769806676</v>
+        <v>-134.0753405751654</v>
       </c>
       <c r="R29">
         <f t="shared" si="12"/>
-        <v>-17.176430297545785</v>
+        <v>-5.7985998805798573</v>
       </c>
       <c r="S29">
         <f t="shared" si="13"/>
-        <v>-122.19389132772035</v>
+        <v>-108.92329420481899</v>
       </c>
       <c r="T29">
         <f t="shared" si="14"/>
-        <v>-131.527865725759</v>
+        <v>-120.15003530879305</v>
       </c>
       <c r="U29">
         <f t="shared" si="15"/>
@@ -24285,11 +24285,11 @@
       </c>
       <c r="W29">
         <f t="shared" si="17"/>
-        <v>-123</v>
+        <v>-109</v>
       </c>
       <c r="X29">
         <f t="shared" si="18"/>
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.15">
@@ -24351,19 +24351,19 @@
       </c>
       <c r="Q30">
         <f t="shared" si="11"/>
-        <v>-146.16293161645629</v>
+        <v>-135.91800054910601</v>
       </c>
       <c r="R30">
         <f t="shared" si="12"/>
-        <v>2.8822906709888252</v>
+        <v>10.251897855583351</v>
       </c>
       <c r="S30">
         <f t="shared" si="13"/>
-        <v>-127.92705192398435</v>
+        <v>-117.68212085663407</v>
       </c>
       <c r="T30">
         <f t="shared" si="14"/>
-        <v>-99.586010079754516</v>
+        <v>-92.216402895159973</v>
       </c>
       <c r="U30">
         <f t="shared" si="15"/>
@@ -24375,11 +24375,11 @@
       </c>
       <c r="W30">
         <f t="shared" si="17"/>
-        <v>-128</v>
+        <v>-118</v>
       </c>
       <c r="X30">
         <f t="shared" si="18"/>
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.15">
@@ -24441,19 +24441,19 @@
       </c>
       <c r="Q31">
         <f t="shared" si="11"/>
-        <v>-144.77266944632512</v>
+        <v>-137.40661637690448</v>
       </c>
       <c r="R31">
         <f t="shared" si="12"/>
-        <v>22.883078741901564</v>
+        <v>27.042495992623863</v>
       </c>
       <c r="S31">
         <f t="shared" si="13"/>
-        <v>-132.37701393217642</v>
+        <v>-125.01096086275578</v>
       </c>
       <c r="T31">
         <f t="shared" si="14"/>
-        <v>-69.200809745662667</v>
+        <v>-65.041392494940368</v>
       </c>
       <c r="U31">
         <f t="shared" si="15"/>
@@ -24465,11 +24465,11 @@
       </c>
       <c r="W31">
         <f t="shared" si="17"/>
-        <v>-133</v>
+        <v>-126</v>
       </c>
       <c r="X31">
         <f t="shared" si="18"/>
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.15">
@@ -24531,19 +24531,19 @@
       </c>
       <c r="Q32">
         <f t="shared" si="11"/>
-        <v>-143.00911190659431</v>
+        <v>-138.33422490517813</v>
       </c>
       <c r="R32">
         <f t="shared" si="12"/>
-        <v>42.563720939746553</v>
+        <v>44.40249353669715</v>
       </c>
       <c r="S32">
         <f t="shared" si="13"/>
-        <v>-135.48236392440293</v>
+        <v>-130.80747692298675</v>
       </c>
       <c r="T32">
         <f t="shared" si="14"/>
-        <v>-40.814431815806444</v>
+        <v>-38.975659218855867</v>
       </c>
       <c r="U32">
         <f t="shared" si="15"/>
@@ -24555,11 +24555,11 @@
       </c>
       <c r="W32">
         <f t="shared" si="17"/>
-        <v>-136</v>
+        <v>-131</v>
       </c>
       <c r="X32">
         <f t="shared" si="18"/>
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.15">
@@ -24621,19 +24621,19 @@
       </c>
       <c r="Q33">
         <f t="shared" si="11"/>
-        <v>-140.7348775955395</v>
+        <v>-138.52591013401303</v>
       </c>
       <c r="R33">
         <f t="shared" si="12"/>
-        <v>61.677477568525831</v>
+        <v>62.130703782020433</v>
       </c>
       <c r="S33">
         <f t="shared" si="13"/>
-        <v>-137.27011445212588</v>
+        <v>-135.06114699059941</v>
       </c>
       <c r="T33">
         <f t="shared" si="14"/>
-        <v>-14.819034430568081</v>
+        <v>-14.365808217073493</v>
       </c>
       <c r="U33">
         <f t="shared" si="15"/>
@@ -24645,7 +24645,7 @@
       </c>
       <c r="W33">
         <f t="shared" si="17"/>
-        <v>-138</v>
+        <v>-136</v>
       </c>
       <c r="X33">
         <f t="shared" si="18"/>
@@ -24801,19 +24801,19 @@
       </c>
       <c r="Q35">
         <f t="shared" si="11"/>
-        <v>-134.27642830909826</v>
+        <v>-136.20462814687971</v>
       </c>
       <c r="R35">
         <f t="shared" si="12"/>
-        <v>97.33523149292634</v>
+        <v>97.764158191887731</v>
       </c>
       <c r="S35">
         <f t="shared" si="13"/>
-        <v>-137.38124375335369</v>
+        <v>-139.30944359113514</v>
       </c>
       <c r="T35">
         <f t="shared" si="14"/>
-        <v>28.78579764837832</v>
+        <v>29.214724347339711</v>
       </c>
       <c r="U35">
         <f t="shared" si="15"/>
@@ -24825,7 +24825,7 @@
       </c>
       <c r="W35">
         <f t="shared" si="17"/>
-        <v>-138</v>
+        <v>-140</v>
       </c>
       <c r="X35">
         <f t="shared" si="18"/>
@@ -24891,19 +24891,19 @@
       </c>
       <c r="Q36">
         <f t="shared" si="11"/>
-        <v>-129.99860579922429</v>
+        <v>-133.55975096216304</v>
       </c>
       <c r="R36">
         <f t="shared" si="12"/>
-        <v>113.51977302401089</v>
+        <v>115.16650312575018</v>
       </c>
       <c r="S36">
         <f t="shared" si="13"/>
-        <v>-136.09351116659289</v>
+        <v>-139.65465632953163</v>
       </c>
       <c r="T36">
         <f t="shared" si="14"/>
-        <v>46.002971351697525</v>
+        <v>47.649701453436819</v>
       </c>
       <c r="U36">
         <f t="shared" si="15"/>
@@ -24915,7 +24915,7 @@
       </c>
       <c r="W36">
         <f t="shared" si="17"/>
-        <v>-137</v>
+        <v>-140</v>
       </c>
       <c r="X36">
         <f t="shared" si="18"/>
@@ -24981,19 +24981,19 @@
       </c>
       <c r="Q37">
         <f t="shared" si="11"/>
-        <v>-125.0251760384463</v>
+        <v>-129.91951590905222</v>
       </c>
       <c r="R37">
         <f t="shared" si="12"/>
-        <v>128.42537441024447</v>
+        <v>131.94964563254374</v>
       </c>
       <c r="S37">
         <f t="shared" si="13"/>
-        <v>-134.22869774091504</v>
+        <v>-139.12303761152097</v>
       </c>
       <c r="T37">
         <f t="shared" si="14"/>
-        <v>60.054963085433428</v>
+        <v>63.57923430773269</v>
       </c>
       <c r="U37">
         <f t="shared" si="15"/>
@@ -25005,11 +25005,11 @@
       </c>
       <c r="W37">
         <f t="shared" si="17"/>
-        <v>-135</v>
+        <v>-140</v>
       </c>
       <c r="X37">
         <f t="shared" si="18"/>
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.15">
@@ -25071,19 +25071,19 @@
       </c>
       <c r="Q38">
         <f t="shared" si="11"/>
-        <v>-119.40625715821179</v>
+        <v>-125.33937502069392</v>
       </c>
       <c r="R38">
         <f t="shared" si="12"/>
-        <v>141.95942359021811</v>
+        <v>147.86546584583016</v>
       </c>
       <c r="S38">
         <f t="shared" si="13"/>
-        <v>-132.03961838568586</v>
+        <v>-137.97273624816802</v>
       </c>
       <c r="T38">
         <f t="shared" si="14"/>
-        <v>70.971948372118817</v>
+        <v>76.877990627730867</v>
       </c>
       <c r="U38">
         <f t="shared" si="15"/>
@@ -25095,11 +25095,11 @@
       </c>
       <c r="W38">
         <f t="shared" si="17"/>
-        <v>-133</v>
+        <v>-138</v>
       </c>
       <c r="X38">
         <f t="shared" si="18"/>
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.15">
@@ -25161,19 +25161,19 @@
       </c>
       <c r="Q39">
         <f t="shared" si="11"/>
-        <v>-113.22553580602882</v>
+        <v>-119.91725694137142</v>
       </c>
       <c r="R39">
         <f t="shared" si="12"/>
-        <v>154.06351935027388</v>
+        <v>162.68447389922318</v>
       </c>
       <c r="S39">
         <f t="shared" si="13"/>
-        <v>-129.766318315001</v>
+        <v>-136.45803945034362</v>
       </c>
       <c r="T39">
         <f t="shared" si="14"/>
-        <v>78.862392763737461</v>
+        <v>87.48334731268676</v>
       </c>
       <c r="U39">
         <f t="shared" si="15"/>
@@ -25185,11 +25185,11 @@
       </c>
       <c r="W39">
         <f t="shared" si="17"/>
-        <v>-130</v>
+        <v>-137</v>
       </c>
       <c r="X39">
         <f t="shared" si="18"/>
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.15">
@@ -25251,19 +25251,19 @@
       </c>
       <c r="Q40">
         <f t="shared" si="11"/>
-        <v>-106.59432816959583</v>
+        <v>-113.78609751798484</v>
       </c>
       <c r="R40">
         <f t="shared" si="12"/>
-        <v>164.71039381611348</v>
+        <v>176.20377169347168</v>
       </c>
       <c r="S40">
         <f t="shared" si="13"/>
-        <v>-127.61830157357132</v>
+        <v>-134.81007092196035</v>
       </c>
       <c r="T40">
         <f t="shared" si="14"/>
-        <v>83.89887320183837</v>
+        <v>95.392251079196569</v>
       </c>
       <c r="U40">
         <f t="shared" si="15"/>
@@ -25275,11 +25275,11 @@
       </c>
       <c r="W40">
         <f t="shared" si="17"/>
-        <v>-128</v>
+        <v>-135</v>
       </c>
       <c r="X40">
         <f t="shared" si="18"/>
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.15">
@@ -25341,19 +25341,19 @@
       </c>
       <c r="Q41">
         <f t="shared" si="11"/>
-        <v>-99.644166211057055</v>
+        <v>-107.1045000168105</v>
       </c>
       <c r="R41">
         <f t="shared" si="12"/>
-        <v>173.89957862249244</v>
+        <v>188.25303072135989</v>
       </c>
       <c r="S41">
         <f t="shared" si="13"/>
-        <v>-125.75995697586238</v>
+        <v>-133.2202907816158</v>
       </c>
       <c r="T41">
         <f t="shared" si="14"/>
-        <v>86.301466264727424</v>
+        <v>100.65491836359487</v>
       </c>
       <c r="U41">
         <f t="shared" si="15"/>
@@ -25365,11 +25365,11 @@
       </c>
       <c r="W41">
         <f t="shared" si="17"/>
-        <v>-126</v>
+        <v>-134</v>
       </c>
       <c r="X41">
         <f t="shared" si="18"/>
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.15">
@@ -25431,19 +25431,19 @@
       </c>
       <c r="Q42">
         <f t="shared" si="11"/>
-        <v>-92.518443804234181</v>
+        <v>-100.04629606613787</v>
       </c>
       <c r="R42">
         <f t="shared" si="12"/>
-        <v>181.6522731200233</v>
+        <v>198.69815832695895</v>
       </c>
       <c r="S42">
         <f t="shared" si="13"/>
-        <v>-124.29997090366606</v>
+        <v>-131.82782316556975</v>
       </c>
       <c r="T42">
         <f t="shared" si="14"/>
-        <v>86.320591764793164</v>
+        <v>103.36647697172882</v>
       </c>
       <c r="U42">
         <f t="shared" si="15"/>
@@ -25455,11 +25455,11 @@
       </c>
       <c r="W42">
         <f t="shared" si="17"/>
-        <v>-125</v>
+        <v>-132</v>
       </c>
       <c r="X42">
         <f t="shared" si="18"/>
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.15">
@@ -25521,19 +25521,19 @@
       </c>
       <c r="Q43">
         <f t="shared" si="11"/>
-        <v>-85.36372232924559</v>
+        <v>-92.789831025116314</v>
       </c>
       <c r="R43">
         <f t="shared" si="12"/>
-        <v>188.00587691749439</v>
+        <v>207.44260524765707</v>
       </c>
       <c r="S43">
         <f t="shared" si="13"/>
-        <v>-123.28514258107751</v>
+        <v>-130.71125127694822</v>
       </c>
       <c r="T43">
         <f t="shared" si="14"/>
-        <v>84.221073270661861</v>
+        <v>103.65780160082454</v>
       </c>
       <c r="U43">
         <f t="shared" si="15"/>
@@ -25545,11 +25545,11 @@
       </c>
       <c r="W43">
         <f t="shared" si="17"/>
-        <v>-124</v>
+        <v>-131</v>
       </c>
       <c r="X43">
         <f t="shared" si="18"/>
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.15">
@@ -25611,19 +25611,19 @@
       </c>
       <c r="Q44">
         <f t="shared" si="11"/>
-        <v>-78.321291307833093</v>
+        <v>-85.507752832511869</v>
       </c>
       <c r="R44">
         <f t="shared" si="12"/>
-        <v>193.00860470266559</v>
+        <v>214.42652739951887</v>
       </c>
       <c r="S44">
         <f t="shared" si="13"/>
-        <v>-122.69865859999767</v>
+        <v>-129.8851201246764</v>
       </c>
       <c r="T44">
         <f t="shared" si="14"/>
-        <v>80.268840656477948</v>
+        <v>101.68676335333123</v>
       </c>
       <c r="U44">
         <f t="shared" si="15"/>
@@ -25635,11 +25635,11 @@
       </c>
       <c r="W44">
         <f t="shared" si="17"/>
-        <v>-123</v>
+        <v>-130</v>
       </c>
       <c r="X44">
         <f t="shared" si="18"/>
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.15">
@@ -25701,19 +25701,19 @@
       </c>
       <c r="Q45">
         <f t="shared" si="11"/>
-        <v>-71.51951560106059</v>
+        <v>-78.357961260378943</v>
       </c>
       <c r="R45">
         <f t="shared" si="12"/>
-        <v>196.71452605649756</v>
+        <v>219.62421891502623</v>
       </c>
       <c r="S45">
         <f t="shared" si="13"/>
-        <v>-122.46258225376027</v>
+        <v>-129.30102791307863</v>
       </c>
       <c r="T45">
         <f t="shared" si="14"/>
-        <v>74.72122117925062</v>
+        <v>97.630914037779291</v>
       </c>
       <c r="U45">
         <f t="shared" si="15"/>
@@ -25725,11 +25725,11 @@
       </c>
       <c r="W45">
         <f t="shared" si="17"/>
-        <v>-123</v>
+        <v>-130</v>
       </c>
       <c r="X45">
         <f t="shared" si="18"/>
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.15">
@@ -25791,19 +25791,19 @@
       </c>
       <c r="Q46">
         <f t="shared" si="11"/>
-        <v>-65.067393991286849</v>
+        <v>-71.476204168811421</v>
       </c>
       <c r="R46">
         <f t="shared" si="12"/>
-        <v>199.17928492899429</v>
+        <v>223.04035896231619</v>
       </c>
       <c r="S46">
         <f t="shared" si="13"/>
-        <v>-122.4440953428881</v>
+        <v>-128.85290552041266</v>
       </c>
       <c r="T46">
         <f t="shared" si="14"/>
-        <v>67.82122275229095</v>
+        <v>91.682296785612849</v>
       </c>
       <c r="U46">
         <f t="shared" si="15"/>
@@ -25815,11 +25815,11 @@
       </c>
       <c r="W46">
         <f t="shared" si="17"/>
-        <v>-123</v>
+        <v>-129</v>
       </c>
       <c r="X46">
         <f t="shared" si="18"/>
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.15">
@@ -25881,19 +25881,19 @@
       </c>
       <c r="Q47">
         <f t="shared" si="11"/>
-        <v>-59.049625933421382</v>
+        <v>-64.970620283789231</v>
       </c>
       <c r="R47">
         <f t="shared" si="12"/>
-        <v>200.45666761310736</v>
+        <v>224.70565456372145</v>
       </c>
       <c r="S47">
         <f t="shared" si="13"/>
-        <v>-122.46490105822481</v>
+        <v>-128.38589540859266</v>
       </c>
       <c r="T47">
         <f t="shared" si="14"/>
-        <v>59.795680634798373</v>
+        <v>84.044667585412469</v>
       </c>
       <c r="U47">
         <f t="shared" si="15"/>
@@ -25905,11 +25905,11 @@
       </c>
       <c r="W47">
         <f t="shared" si="17"/>
-        <v>-123</v>
+        <v>-129</v>
       </c>
       <c r="X47">
         <f t="shared" si="18"/>
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.15">
@@ -25971,19 +25971,19 @@
       </c>
       <c r="Q48">
         <f t="shared" si="11"/>
-        <v>-53.523354049381886</v>
+        <v>-58.91835130370805</v>
       </c>
       <c r="R48">
         <f t="shared" si="12"/>
-        <v>200.59611434602974</v>
+        <v>224.67242196770334</v>
       </c>
       <c r="S48">
         <f t="shared" si="13"/>
-        <v>-122.31314297605495</v>
+        <v>-127.70814023038112</v>
       </c>
       <c r="T48">
         <f t="shared" si="14"/>
-        <v>50.856678034152466</v>
+        <v>74.932985655826073</v>
       </c>
       <c r="U48">
         <f t="shared" si="15"/>
@@ -25995,11 +25995,11 @@
       </c>
       <c r="W48">
         <f t="shared" si="17"/>
-        <v>-123</v>
+        <v>-128</v>
       </c>
       <c r="X48">
         <f t="shared" si="18"/>
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.15">
@@ -26061,19 +26061,19 @@
       </c>
       <c r="Q49">
         <f t="shared" si="11"/>
-        <v>-48.516634692248374</v>
+        <v>-53.364198210352015</v>
       </c>
       <c r="R49">
         <f t="shared" si="12"/>
-        <v>199.64121236605274</v>
+        <v>223.01054675311696</v>
       </c>
       <c r="S49">
         <f t="shared" si="13"/>
-        <v>-121.75719020376782</v>
+        <v>-126.60475372187146</v>
       </c>
       <c r="T49">
         <f t="shared" si="14"/>
-        <v>41.20530503806296</v>
+        <v>64.574639425127174</v>
       </c>
       <c r="U49">
         <f t="shared" si="15"/>
@@ -26085,11 +26085,11 @@
       </c>
       <c r="W49">
         <f t="shared" si="17"/>
-        <v>-122</v>
+        <v>-127</v>
       </c>
       <c r="X49">
         <f t="shared" si="18"/>
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.15">
@@ -26151,19 +26151,19 @@
       </c>
       <c r="Q50">
         <f t="shared" si="11"/>
-        <v>-44.028595693255852</v>
+        <v>-48.321185721728625</v>
       </c>
       <c r="R50">
         <f t="shared" si="12"/>
-        <v>197.62916674479217</v>
+        <v>219.80412005899939</v>
       </c>
       <c r="S50">
         <f t="shared" si="13"/>
-        <v>-111.19351476521956</v>
+        <v>-115.48610479369233</v>
       </c>
       <c r="T50">
         <f t="shared" si="14"/>
-        <v>51.426695728501045</v>
+        <v>73.60164904270826</v>
       </c>
       <c r="U50">
         <f t="shared" si="15"/>
@@ -26175,11 +26175,11 @@
       </c>
       <c r="W50">
         <f t="shared" si="17"/>
-        <v>-112</v>
+        <v>-116</v>
       </c>
       <c r="X50">
         <f t="shared" si="18"/>
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.15">
@@ -26241,19 +26241,19 @@
       </c>
       <c r="Q51">
         <f t="shared" si="11"/>
-        <v>-40.031170204648312</v>
+        <v>-43.772823880583758</v>
       </c>
       <c r="R51">
         <f t="shared" si="12"/>
-        <v>194.59121552733868</v>
+        <v>215.14888889737406</v>
       </c>
       <c r="S51">
         <f t="shared" si="13"/>
-        <v>-101.09431548355353</v>
+        <v>-104.83596915948897</v>
       </c>
       <c r="T51">
         <f t="shared" si="14"/>
-        <v>59.14747163398124</v>
+        <v>79.705145004016629</v>
       </c>
       <c r="U51">
         <f t="shared" si="15"/>
@@ -26265,11 +26265,11 @@
       </c>
       <c r="W51">
         <f t="shared" si="17"/>
-        <v>-102</v>
+        <v>-105</v>
       </c>
       <c r="X51">
         <f t="shared" si="18"/>
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.15">
@@ -26331,19 +26331,19 @@
       </c>
       <c r="Q52">
         <f t="shared" si="11"/>
-        <v>-36.472243936223762</v>
+        <v>-39.676809488342599</v>
       </c>
       <c r="R52">
         <f t="shared" si="12"/>
-        <v>190.55393176886207</v>
+        <v>209.15050445693706</v>
       </c>
       <c r="S52">
         <f t="shared" si="13"/>
-        <v>-91.620956872961713</v>
+        <v>-94.82552242508055</v>
       </c>
       <c r="T52">
         <f t="shared" si="14"/>
-        <v>64.296620137840392</v>
+        <v>82.893192825915378</v>
       </c>
       <c r="U52">
         <f t="shared" si="15"/>
@@ -26355,11 +26355,11 @@
       </c>
       <c r="W52">
         <f t="shared" si="17"/>
-        <v>-92</v>
+        <v>-95</v>
       </c>
       <c r="X52">
         <f t="shared" si="18"/>
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.15">
@@ -26421,19 +26421,19 @@
       </c>
       <c r="Q53">
         <f t="shared" si="11"/>
-        <v>-33.280012991807766</v>
+        <v>-35.969882539276568</v>
       </c>
       <c r="R53">
         <f t="shared" si="12"/>
-        <v>185.54133083103955</v>
+        <v>201.92342195947344</v>
       </c>
       <c r="S53">
         <f t="shared" si="13"/>
-        <v>-82.85879082538753</v>
+        <v>-85.548660372856318</v>
       </c>
       <c r="T53">
         <f t="shared" si="14"/>
-        <v>66.815086866834378</v>
+        <v>83.197177995268277</v>
       </c>
       <c r="U53">
         <f t="shared" si="15"/>
@@ -26445,11 +26445,11 @@
       </c>
       <c r="W53">
         <f t="shared" si="17"/>
-        <v>-83</v>
+        <v>-86</v>
       </c>
       <c r="X53">
         <f t="shared" si="18"/>
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.15">
@@ -26511,19 +26511,19 @@
       </c>
       <c r="Q54">
         <f t="shared" si="11"/>
-        <v>-30.368314388344633</v>
+        <v>-32.573535153764283</v>
       </c>
       <c r="R54">
         <f t="shared" si="12"/>
-        <v>179.57767177491664</v>
+        <v>193.59021254533144</v>
       </c>
       <c r="S54">
         <f t="shared" si="13"/>
-        <v>-74.81629205322065</v>
+        <v>-77.021512818640304</v>
       </c>
       <c r="T54">
         <f t="shared" si="14"/>
-        <v>66.658523568639268</v>
+        <v>80.67106433905407</v>
       </c>
       <c r="U54">
         <f t="shared" si="15"/>
@@ -26535,11 +26535,11 @@
       </c>
       <c r="W54">
         <f t="shared" si="17"/>
-        <v>-75</v>
+        <v>-78</v>
       </c>
       <c r="X54">
         <f t="shared" si="18"/>
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.15">
@@ -26601,19 +26601,19 @@
       </c>
       <c r="Q55">
         <f t="shared" si="11"/>
-        <v>-27.64265796877088</v>
+        <v>-29.400257953226685</v>
       </c>
       <c r="R55">
         <f t="shared" si="12"/>
-        <v>172.69080408610856</v>
+        <v>184.28100012265963</v>
       </c>
       <c r="S55">
         <f t="shared" si="13"/>
-        <v>-67.428473712495588</v>
+        <v>-69.186073696951397</v>
       </c>
       <c r="T55">
         <f t="shared" si="14"/>
-        <v>63.803451042097684</v>
+        <v>75.393647078648769</v>
       </c>
       <c r="U55">
         <f t="shared" si="15"/>
@@ -26625,11 +26625,11 @@
       </c>
       <c r="W55">
         <f t="shared" si="17"/>
-        <v>-68</v>
+        <v>-70</v>
       </c>
       <c r="X55">
         <f t="shared" si="18"/>
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.15">
@@ -26691,19 +26691,19 @@
       </c>
       <c r="Q56">
         <f t="shared" si="11"/>
-        <v>-25.006658986409114</v>
+        <v>-26.360002374567102</v>
       </c>
       <c r="R56">
         <f t="shared" si="12"/>
-        <v>164.91586572480301</v>
+        <v>174.13273677429618</v>
       </c>
       <c r="S56">
         <f t="shared" si="13"/>
-        <v>-60.564626427910234</v>
+        <v>-61.917969816068229</v>
       </c>
       <c r="T56">
         <f t="shared" si="14"/>
-        <v>58.256396179256015</v>
+        <v>67.473267228749179</v>
       </c>
       <c r="U56">
         <f t="shared" si="15"/>
@@ -26715,11 +26715,11 @@
       </c>
       <c r="W56">
         <f t="shared" si="17"/>
-        <v>-61</v>
+        <v>-62</v>
       </c>
       <c r="X56">
         <f t="shared" si="18"/>
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.15">
@@ -26781,19 +26781,19 @@
       </c>
       <c r="Q57">
         <f t="shared" si="11"/>
-        <v>-22.368553955791221</v>
+        <v>-23.366544640079837</v>
       </c>
       <c r="R57">
         <f t="shared" si="12"/>
-        <v>156.29908996045859</v>
+        <v>163.28807585155954</v>
       </c>
       <c r="S57">
         <f t="shared" si="13"/>
-        <v>-54.040296239493763</v>
+        <v>-55.038286923782387</v>
       </c>
       <c r="T57">
         <f t="shared" si="14"/>
-        <v>50.065092907885116</v>
+        <v>57.054078798986069</v>
       </c>
       <c r="U57">
         <f t="shared" si="15"/>
@@ -26805,11 +26805,11 @@
       </c>
       <c r="W57">
         <f t="shared" si="17"/>
-        <v>-55</v>
+        <v>-56</v>
       </c>
       <c r="X57">
         <f t="shared" si="18"/>
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.15">
@@ -26871,19 +26871,19 @@
       </c>
       <c r="Q58">
         <f t="shared" si="11"/>
-        <v>-19.647495033127061</v>
+        <v>-20.343472712003347</v>
       </c>
       <c r="R58">
         <f t="shared" si="12"/>
-        <v>146.90143528391971</v>
+        <v>151.89368268901381</v>
       </c>
       <c r="S58">
         <f t="shared" si="13"/>
-        <v>-47.633229906027708</v>
+        <v>-48.329207584903983</v>
       </c>
       <c r="T58">
         <f t="shared" si="14"/>
-        <v>39.330437778785964</v>
+        <v>44.322685183880068</v>
       </c>
       <c r="U58">
         <f t="shared" si="15"/>
@@ -26895,11 +26895,11 @@
       </c>
       <c r="W58">
         <f t="shared" si="17"/>
-        <v>-48</v>
+        <v>-49</v>
       </c>
       <c r="X58">
         <f t="shared" si="18"/>
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.15">
@@ -26961,19 +26961,19 @@
       </c>
       <c r="Q59">
         <f t="shared" si="11"/>
-        <v>-16.779388669031295</v>
+        <v>-17.229607141361669</v>
       </c>
       <c r="R59">
         <f t="shared" si="12"/>
-        <v>136.80172789474196</v>
+        <v>140.09792288864887</v>
       </c>
       <c r="S59">
         <f t="shared" si="13"/>
-        <v>-41.102795509956749</v>
+        <v>-41.553013982287126</v>
       </c>
       <c r="T59">
         <f t="shared" si="14"/>
-        <v>26.217624883407659</v>
+        <v>29.513819877314567</v>
       </c>
       <c r="U59">
         <f t="shared" si="15"/>
@@ -26989,7 +26989,7 @@
       </c>
       <c r="X59">
         <f t="shared" si="18"/>
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.15">
@@ -27051,19 +27051,19 @@
       </c>
       <c r="Q60">
         <f t="shared" si="11"/>
-        <v>-13.722230179695172</v>
+        <v>-13.983863584969413</v>
       </c>
       <c r="R60">
         <f t="shared" si="12"/>
-        <v>126.09901760688197</v>
+        <v>128.04796428917601</v>
       </c>
       <c r="S60">
         <f t="shared" si="13"/>
-        <v>-34.212211070620626</v>
+        <v>-34.473844475894872</v>
       </c>
       <c r="T60">
         <f t="shared" si="14"/>
-        <v>10.964811869877231</v>
+        <v>12.913758552171267</v>
       </c>
       <c r="U60">
         <f t="shared" si="15"/>
@@ -27079,7 +27079,7 @@
       </c>
       <c r="X60">
         <f t="shared" si="18"/>
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.15">
@@ -27141,19 +27141,19 @@
       </c>
       <c r="Q61">
         <f t="shared" si="11"/>
-        <v>-10.461346289112955</v>
+        <v>-10.590021123554152</v>
       </c>
       <c r="R61">
         <f t="shared" si="12"/>
-        <v>114.91392207871412</v>
+        <v>115.88638707197384</v>
       </c>
       <c r="S61">
         <f t="shared" si="13"/>
-        <v>-26.752986637110624</v>
+        <v>-26.881661471551819</v>
       </c>
       <c r="T61">
         <f t="shared" si="14"/>
-        <v>-6.1121576935219153</v>
+        <v>-5.139692700262195</v>
       </c>
       <c r="U61">
         <f t="shared" si="15"/>
@@ -27169,7 +27169,7 @@
       </c>
       <c r="X61">
         <f t="shared" si="18"/>
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.15">
@@ -27231,19 +27231,19 @@
       </c>
       <c r="Q62">
         <f t="shared" si="11"/>
-        <v>-7.0163010537484016</v>
+        <v>-7.0631695881056089</v>
       </c>
       <c r="R62">
         <f t="shared" si="12"/>
-        <v>103.38892932079578</v>
+        <v>103.74735006052617</v>
       </c>
       <c r="S62">
         <f t="shared" si="13"/>
-        <v>-18.571974641668806</v>
+        <v>-18.618843176026012</v>
       </c>
       <c r="T62">
         <f t="shared" si="14"/>
-        <v>-24.619969062224243</v>
+        <v>-24.261548322493852</v>
       </c>
       <c r="U62">
         <f t="shared" si="15"/>
@@ -27321,19 +27321,19 @@
       </c>
       <c r="Q63">
         <f t="shared" si="11"/>
-        <v>-3.4568844428792858</v>
+        <v>-3.4651503564232939</v>
       </c>
       <c r="R63">
         <f t="shared" si="12"/>
-        <v>91.688170989838881</v>
+        <v>91.751977527627048</v>
       </c>
       <c r="S63">
         <f t="shared" si="13"/>
-        <v>-9.6068323895760699</v>
+        <v>-9.6150983031200781</v>
       </c>
       <c r="T63">
         <f t="shared" si="14"/>
-        <v>-44.092991365400884</v>
+        <v>-44.029184827612717</v>
       </c>
       <c r="U63">
         <f t="shared" si="15"/>
